--- a/画面設計書/画面設計書_3_1_試験画面.xlsx
+++ b/画面設計書/画面設計書_3_1_試験画面.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\ドキュメントフォーマット\設計書サンプル\画面設計書\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CAB571-C929-4766-B7E4-3FDEB3A246BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="0" windowWidth="17088" windowHeight="11628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="0" windowWidth="17085" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -252,11 +246,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -721,7 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -762,6 +756,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,210 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -1060,11 +868,209 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1153,13 +1159,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1167,7 +1173,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2C4AA9-4AF7-D575-B860-F701A1367930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF2C4AA9-4AF7-D575-B860-F701A1367930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,13 +1266,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1274,7 +1280,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5652B8B6-15C2-E603-CAC7-6E581E641871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5652B8B6-15C2-E603-CAC7-6E581E641871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,13 +1422,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1430,7 +1436,7 @@
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA9390F-59D8-3505-8351-D5818F60D2F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA9390F-59D8-3505-8351-D5818F60D2F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,13 +1490,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1498,7 +1504,7 @@
         <xdr:cNvPr id="7" name="楕円 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641B93E3-A282-4620-B567-70F3C7D91EB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{641B93E3-A282-4620-B567-70F3C7D91EB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,13 +1558,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1566,7 +1572,7 @@
         <xdr:cNvPr id="8" name="楕円 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C238152-6F79-45A0-9FED-008BF735F1FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C238152-6F79-45A0-9FED-008BF735F1FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,13 +1626,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1634,7 +1640,7 @@
         <xdr:cNvPr id="9" name="楕円 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA89DA9B-F401-4216-8D73-F5F7E0E33A5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA89DA9B-F401-4216-8D73-F5F7E0E33A5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,13 +1694,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1702,7 +1708,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AFBE7D-C5C1-4E67-A7B3-BD0D9322370C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3AFBE7D-C5C1-4E67-A7B3-BD0D9322370C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,13 +1850,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1858,7 +1864,7 @@
         <xdr:cNvPr id="12" name="楕円 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1B16AB-F451-44E6-864E-F57932DA0361}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A1B16AB-F451-44E6-864E-F57932DA0361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,13 +1918,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1926,7 +1932,7 @@
         <xdr:cNvPr id="13" name="楕円 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163E11D-2267-442B-B495-2045B0E03ADA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163E11D-2267-442B-B495-2045B0E03ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,13 +1986,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1994,7 +2000,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCADA793-37FE-455B-B735-58A42B9038ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCADA793-37FE-455B-B735-58A42B9038ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,13 +2054,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2062,7 +2068,7 @@
         <xdr:cNvPr id="15" name="楕円 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6DE875-5A70-433C-AEB1-0A7D842716AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C6DE875-5A70-433C-AEB1-0A7D842716AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,13 +2122,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2130,7 +2136,7 @@
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2B8D9B-B560-B07F-35AB-D13A95D083BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2B8D9B-B560-B07F-35AB-D13A95D083BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,13 +2193,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2201,7 +2207,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519C2D7D-13DA-C4DB-1482-6807DAD1AA8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{519C2D7D-13DA-C4DB-1482-6807DAD1AA8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,13 +2253,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2261,7 +2267,7 @@
         <xdr:cNvPr id="18" name="楕円 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFF5FA8-B6CA-4EAF-B138-80FBB43DBDB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DFF5FA8-B6CA-4EAF-B138-80FBB43DBDB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,13 +2313,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2321,7 +2327,7 @@
         <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B05101-3CCA-475C-8180-11B19B73172D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32B05101-3CCA-475C-8180-11B19B73172D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,13 +2373,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2381,7 +2387,7 @@
         <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B320FD-08B6-4057-A92E-343EF7B44CAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B320FD-08B6-4057-A92E-343EF7B44CAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,6 +2424,78 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="971550"/>
+          <a:ext cx="10629900" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1"/>
+            <a:t> Sylph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1" baseline="0"/>
+            <a:t> Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" baseline="0"/>
+            <a:t>試験アプリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2681,128 +2759,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CJ7" sqref="CJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="2" customWidth="1"/>
-    <col min="2" max="87" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="2" customWidth="1"/>
+    <col min="2" max="87" width="1.625" style="2" customWidth="1"/>
     <col min="88" max="1025" width="9" style="2"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3741,106 +3819,106 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="26">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4779,7 +4857,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4867,463 +4945,463 @@
       <c r="CH3" s="14"/>
       <c r="CI3" s="14"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="32">
+    <row r="5" spans="1:1024" ht="18" customHeight="1">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="BP6" s="6"/>
-      <c r="BQ6" s="6"/>
-      <c r="BR6" s="6"/>
-      <c r="BS6" s="6"/>
-      <c r="BT6" s="6"/>
-      <c r="BU6" s="6"/>
-      <c r="BV6" s="6"/>
-      <c r="BW6" s="6"/>
-      <c r="BX6" s="6"/>
-      <c r="BY6" s="6"/>
-      <c r="BZ6" s="6"/>
-      <c r="CA6" s="6"/>
-      <c r="CB6" s="6"/>
-      <c r="CC6" s="6"/>
-      <c r="CD6" s="6"/>
-      <c r="CE6" s="6"/>
-      <c r="CF6" s="6"/>
-      <c r="CG6" s="6"/>
-      <c r="CH6" s="6"/>
-      <c r="CI6" s="7"/>
+    <row r="6" spans="1:1024" ht="18" customHeight="1">
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="116"/>
+      <c r="BJ6" s="116"/>
+      <c r="BK6" s="116"/>
+      <c r="BL6" s="116"/>
+      <c r="BM6" s="116"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="116"/>
+      <c r="BP6" s="116"/>
+      <c r="BQ6" s="116"/>
+      <c r="BR6" s="116"/>
+      <c r="BS6" s="116"/>
+      <c r="BT6" s="116"/>
+      <c r="BU6" s="116"/>
+      <c r="BV6" s="116"/>
+      <c r="BW6" s="116"/>
+      <c r="BX6" s="116"/>
+      <c r="BY6" s="116"/>
+      <c r="BZ6" s="116"/>
+      <c r="CA6" s="116"/>
+      <c r="CB6" s="116"/>
+      <c r="CC6" s="116"/>
+      <c r="CD6" s="116"/>
+      <c r="CE6" s="116"/>
+      <c r="CF6" s="116"/>
+      <c r="CG6" s="116"/>
+      <c r="CH6" s="116"/>
+      <c r="CI6" s="117"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="6"/>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
-      <c r="BU7" s="6"/>
-      <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="6"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
-      <c r="CH7" s="6"/>
-      <c r="CI7" s="7"/>
+    <row r="7" spans="1:1024" ht="18" customHeight="1">
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="116"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="116"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
+      <c r="BI7" s="116"/>
+      <c r="BJ7" s="116"/>
+      <c r="BK7" s="116"/>
+      <c r="BL7" s="116"/>
+      <c r="BM7" s="116"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="116"/>
+      <c r="BU7" s="116"/>
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="116"/>
+      <c r="CC7" s="116"/>
+      <c r="CD7" s="116"/>
+      <c r="CE7" s="116"/>
+      <c r="CF7" s="116"/>
+      <c r="CG7" s="116"/>
+      <c r="CH7" s="116"/>
+      <c r="CI7" s="117"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="BP8" s="6"/>
-      <c r="BQ8" s="6"/>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
-      <c r="BU8" s="6"/>
-      <c r="BV8" s="6"/>
-      <c r="BW8" s="6"/>
-      <c r="BX8" s="6"/>
-      <c r="BY8" s="6"/>
-      <c r="BZ8" s="6"/>
-      <c r="CA8" s="6"/>
-      <c r="CB8" s="6"/>
-      <c r="CC8" s="6"/>
-      <c r="CD8" s="6"/>
-      <c r="CE8" s="6"/>
-      <c r="CF8" s="6"/>
-      <c r="CG8" s="6"/>
-      <c r="CH8" s="6"/>
-      <c r="CI8" s="7"/>
+    <row r="8" spans="1:1024" ht="18" customHeight="1">
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="116"/>
+      <c r="BF8" s="116"/>
+      <c r="BG8" s="116"/>
+      <c r="BH8" s="116"/>
+      <c r="BI8" s="116"/>
+      <c r="BJ8" s="116"/>
+      <c r="BK8" s="116"/>
+      <c r="BL8" s="116"/>
+      <c r="BM8" s="116"/>
+      <c r="BN8" s="116"/>
+      <c r="BO8" s="116"/>
+      <c r="BP8" s="116"/>
+      <c r="BQ8" s="116"/>
+      <c r="BR8" s="116"/>
+      <c r="BS8" s="116"/>
+      <c r="BT8" s="116"/>
+      <c r="BU8" s="116"/>
+      <c r="BV8" s="116"/>
+      <c r="BW8" s="116"/>
+      <c r="BX8" s="116"/>
+      <c r="BY8" s="116"/>
+      <c r="BZ8" s="116"/>
+      <c r="CA8" s="116"/>
+      <c r="CB8" s="116"/>
+      <c r="CC8" s="116"/>
+      <c r="CD8" s="116"/>
+      <c r="CE8" s="116"/>
+      <c r="CF8" s="116"/>
+      <c r="CG8" s="116"/>
+      <c r="CH8" s="116"/>
+      <c r="CI8" s="117"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1024" ht="18" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5411,7 +5489,7 @@
       <c r="CH9" s="6"/>
       <c r="CI9" s="7"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1024" ht="18" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5499,7 +5577,7 @@
       <c r="CH10" s="6"/>
       <c r="CI10" s="7"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1024" ht="18" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5587,7 +5665,7 @@
       <c r="CH11" s="6"/>
       <c r="CI11" s="7"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1024" ht="18" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5675,7 +5753,7 @@
       <c r="CH12" s="6"/>
       <c r="CI12" s="7"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1024" ht="18" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5763,7 +5841,7 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="7"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1024" ht="18" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5851,7 +5929,7 @@
       <c r="CH14" s="6"/>
       <c r="CI14" s="7"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1024" ht="18" customHeight="1">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5939,7 +6017,7 @@
       <c r="CH15" s="6"/>
       <c r="CI15" s="7"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1024" ht="18" customHeight="1">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6027,7 +6105,7 @@
       <c r="CH16" s="6"/>
       <c r="CI16" s="7"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:87" ht="18" customHeight="1">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6115,7 +6193,7 @@
       <c r="CH17" s="6"/>
       <c r="CI17" s="7"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:87" ht="18" customHeight="1">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6203,7 +6281,7 @@
       <c r="CH18" s="6"/>
       <c r="CI18" s="7"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:87" ht="18" customHeight="1">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6291,7 +6369,7 @@
       <c r="CH19" s="6"/>
       <c r="CI19" s="7"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:87" ht="18" customHeight="1">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6379,7 +6457,7 @@
       <c r="CH20" s="6"/>
       <c r="CI20" s="7"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:87" ht="18" customHeight="1">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6467,7 +6545,7 @@
       <c r="CH21" s="6"/>
       <c r="CI21" s="7"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:87" ht="18" customHeight="1">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6555,7 +6633,7 @@
       <c r="CH22" s="6"/>
       <c r="CI22" s="7"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:87" ht="18" customHeight="1">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6643,7 +6721,7 @@
       <c r="CH23" s="6"/>
       <c r="CI23" s="7"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:87" ht="18" customHeight="1">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6731,7 +6809,7 @@
       <c r="CH24" s="6"/>
       <c r="CI24" s="7"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:87" ht="18" customHeight="1">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -6819,7 +6897,7 @@
       <c r="CH25" s="6"/>
       <c r="CI25" s="7"/>
     </row>
-    <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:87" ht="18" customHeight="1">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6907,7 +6985,7 @@
       <c r="CH26" s="6"/>
       <c r="CI26" s="7"/>
     </row>
-    <row r="27" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:87" ht="18" customHeight="1">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -6995,7 +7073,7 @@
       <c r="CH27" s="6"/>
       <c r="CI27" s="7"/>
     </row>
-    <row r="28" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:87" ht="18" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7009,17 +7087,17 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
@@ -7039,9 +7117,9 @@
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
@@ -7078,15 +7156,15 @@
       <c r="CC28" s="6"/>
       <c r="CD28" s="6"/>
       <c r="CE28" s="6"/>
-      <c r="CF28" s="5"/>
-      <c r="CG28" s="5"/>
-      <c r="CH28" s="5"/>
-      <c r="CI28" s="8"/>
+      <c r="CF28" s="6"/>
+      <c r="CG28" s="6"/>
+      <c r="CH28" s="6"/>
+      <c r="CI28" s="7"/>
     </row>
-    <row r="29" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:87" ht="18" customHeight="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -7097,17 +7175,17 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -7127,9 +7205,9 @@
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
@@ -7166,109 +7244,365 @@
       <c r="CC29" s="6"/>
       <c r="CD29" s="6"/>
       <c r="CE29" s="6"/>
-      <c r="CF29" s="5"/>
-      <c r="CG29" s="5"/>
-      <c r="CH29" s="5"/>
-      <c r="CI29" s="8"/>
+      <c r="CF29" s="6"/>
+      <c r="CG29" s="6"/>
+      <c r="CH29" s="6"/>
+      <c r="CI29" s="7"/>
     </row>
-    <row r="30" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
-      <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="10"/>
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="10"/>
-      <c r="AZ30" s="10"/>
-      <c r="BA30" s="10"/>
-      <c r="BB30" s="10"/>
-      <c r="BC30" s="10"/>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="10"/>
-      <c r="BF30" s="10"/>
-      <c r="BG30" s="10"/>
-      <c r="BH30" s="10"/>
-      <c r="BI30" s="10"/>
-      <c r="BJ30" s="10"/>
-      <c r="BK30" s="10"/>
-      <c r="BL30" s="10"/>
-      <c r="BM30" s="10"/>
-      <c r="BN30" s="10"/>
-      <c r="BO30" s="10"/>
-      <c r="BP30" s="10"/>
-      <c r="BQ30" s="10"/>
-      <c r="BR30" s="11"/>
-      <c r="BS30" s="11"/>
-      <c r="BT30" s="11"/>
-      <c r="BU30" s="11"/>
-      <c r="BV30" s="11"/>
-      <c r="BW30" s="11"/>
-      <c r="BX30" s="11"/>
-      <c r="BY30" s="11"/>
-      <c r="BZ30" s="11"/>
-      <c r="CA30" s="11"/>
-      <c r="CB30" s="11"/>
-      <c r="CC30" s="11"/>
-      <c r="CD30" s="11"/>
-      <c r="CE30" s="11"/>
-      <c r="CF30" s="11"/>
-      <c r="CG30" s="11"/>
-      <c r="CH30" s="11"/>
-      <c r="CI30" s="12"/>
+    <row r="30" spans="2:87" ht="18" customHeight="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="6"/>
+      <c r="BG30" s="6"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="6"/>
+      <c r="BJ30" s="6"/>
+      <c r="BK30" s="6"/>
+      <c r="BL30" s="6"/>
+      <c r="BM30" s="6"/>
+      <c r="BN30" s="6"/>
+      <c r="BO30" s="6"/>
+      <c r="BP30" s="6"/>
+      <c r="BQ30" s="6"/>
+      <c r="BR30" s="6"/>
+      <c r="BS30" s="6"/>
+      <c r="BT30" s="6"/>
+      <c r="BU30" s="6"/>
+      <c r="BV30" s="6"/>
+      <c r="BW30" s="6"/>
+      <c r="BX30" s="6"/>
+      <c r="BY30" s="6"/>
+      <c r="BZ30" s="6"/>
+      <c r="CA30" s="6"/>
+      <c r="CB30" s="6"/>
+      <c r="CC30" s="6"/>
+      <c r="CD30" s="6"/>
+      <c r="CE30" s="6"/>
+      <c r="CF30" s="6"/>
+      <c r="CG30" s="6"/>
+      <c r="CH30" s="6"/>
+      <c r="CI30" s="7"/>
+    </row>
+    <row r="31" spans="2:87" ht="18" customHeight="1">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="6"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="6"/>
+      <c r="BN31" s="6"/>
+      <c r="BO31" s="6"/>
+      <c r="BP31" s="6"/>
+      <c r="BQ31" s="6"/>
+      <c r="BR31" s="6"/>
+      <c r="BS31" s="6"/>
+      <c r="BT31" s="6"/>
+      <c r="BU31" s="6"/>
+      <c r="BV31" s="6"/>
+      <c r="BW31" s="6"/>
+      <c r="BX31" s="6"/>
+      <c r="BY31" s="6"/>
+      <c r="BZ31" s="6"/>
+      <c r="CA31" s="6"/>
+      <c r="CB31" s="6"/>
+      <c r="CC31" s="6"/>
+      <c r="CD31" s="6"/>
+      <c r="CE31" s="6"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
+      <c r="CH31" s="5"/>
+      <c r="CI31" s="8"/>
+    </row>
+    <row r="32" spans="2:87" ht="18" customHeight="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="6"/>
+      <c r="BH32" s="6"/>
+      <c r="BI32" s="6"/>
+      <c r="BJ32" s="6"/>
+      <c r="BK32" s="6"/>
+      <c r="BL32" s="6"/>
+      <c r="BM32" s="6"/>
+      <c r="BN32" s="6"/>
+      <c r="BO32" s="6"/>
+      <c r="BP32" s="6"/>
+      <c r="BQ32" s="6"/>
+      <c r="BR32" s="6"/>
+      <c r="BS32" s="6"/>
+      <c r="BT32" s="6"/>
+      <c r="BU32" s="6"/>
+      <c r="BV32" s="6"/>
+      <c r="BW32" s="6"/>
+      <c r="BX32" s="6"/>
+      <c r="BY32" s="6"/>
+      <c r="BZ32" s="6"/>
+      <c r="CA32" s="6"/>
+      <c r="CB32" s="6"/>
+      <c r="CC32" s="6"/>
+      <c r="CD32" s="6"/>
+      <c r="CE32" s="6"/>
+      <c r="CF32" s="5"/>
+      <c r="CG32" s="5"/>
+      <c r="CH32" s="5"/>
+      <c r="CI32" s="8"/>
+    </row>
+    <row r="33" spans="2:87" ht="18" customHeight="1" thickBot="1">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+      <c r="BK33" s="10"/>
+      <c r="BL33" s="10"/>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="10"/>
+      <c r="BP33" s="10"/>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="11"/>
+      <c r="BS33" s="11"/>
+      <c r="BT33" s="11"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="11"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
+      <c r="CD33" s="11"/>
+      <c r="CE33" s="11"/>
+      <c r="CF33" s="11"/>
+      <c r="CG33" s="11"/>
+      <c r="CH33" s="11"/>
+      <c r="CI33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7283,6 +7617,14 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7296,121 +7638,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BE12" sqref="BE12:BP12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="2"/>
-    <col min="2" max="87" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="2"/>
+    <col min="2" max="87" width="1.625" style="2" customWidth="1"/>
     <col min="88" max="1025" width="9" style="2"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8349,106 +8691,106 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="26">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9387,7 +9729,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -9475,1794 +9817,1659 @@
       <c r="CH3" s="14"/>
       <c r="CI3" s="14"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="32">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:1024" ht="18" customHeight="1">
+      <c r="B6" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="35"/>
-      <c r="CG6" s="35"/>
-      <c r="CH6" s="35"/>
-      <c r="CI6" s="35"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="105"/>
+      <c r="BR6" s="105"/>
+      <c r="BS6" s="105"/>
+      <c r="BT6" s="105"/>
+      <c r="BU6" s="105"/>
+      <c r="BV6" s="105"/>
+      <c r="BW6" s="105"/>
+      <c r="BX6" s="105"/>
+      <c r="BY6" s="105"/>
+      <c r="BZ6" s="105"/>
+      <c r="CA6" s="105"/>
+      <c r="CB6" s="105"/>
+      <c r="CC6" s="105"/>
+      <c r="CD6" s="105"/>
+      <c r="CE6" s="105"/>
+      <c r="CF6" s="105"/>
+      <c r="CG6" s="105"/>
+      <c r="CH6" s="105"/>
+      <c r="CI6" s="105"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="1:1024" ht="18" customHeight="1">
+      <c r="B7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="37" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="37" t="s">
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="37" t="s">
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="37" t="s">
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="40" t="s">
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="108"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="113"/>
+      <c r="AU7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
-      <c r="BQ7" s="41" t="s">
+      <c r="AV7" s="110"/>
+      <c r="AW7" s="110"/>
+      <c r="AX7" s="110"/>
+      <c r="AY7" s="110"/>
+      <c r="AZ7" s="110"/>
+      <c r="BA7" s="110"/>
+      <c r="BB7" s="110"/>
+      <c r="BC7" s="110"/>
+      <c r="BD7" s="110"/>
+      <c r="BE7" s="110"/>
+      <c r="BF7" s="110"/>
+      <c r="BG7" s="110"/>
+      <c r="BH7" s="110"/>
+      <c r="BI7" s="110"/>
+      <c r="BJ7" s="110"/>
+      <c r="BK7" s="110"/>
+      <c r="BL7" s="110"/>
+      <c r="BM7" s="110"/>
+      <c r="BN7" s="110"/>
+      <c r="BO7" s="110"/>
+      <c r="BP7" s="110"/>
+      <c r="BQ7" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="41"/>
-      <c r="CF7" s="41"/>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="41"/>
+      <c r="BR7" s="111"/>
+      <c r="BS7" s="111"/>
+      <c r="BT7" s="111"/>
+      <c r="BU7" s="111"/>
+      <c r="BV7" s="111"/>
+      <c r="BW7" s="111"/>
+      <c r="BX7" s="111"/>
+      <c r="BY7" s="111"/>
+      <c r="BZ7" s="111"/>
+      <c r="CA7" s="111"/>
+      <c r="CB7" s="111"/>
+      <c r="CC7" s="111"/>
+      <c r="CD7" s="111"/>
+      <c r="CE7" s="111"/>
+      <c r="CF7" s="111"/>
+      <c r="CG7" s="111"/>
+      <c r="CH7" s="111"/>
+      <c r="CI7" s="111"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="45">
+    <row r="8" spans="1:1024" ht="18" customHeight="1">
+      <c r="B8" s="87">
         <f t="shared" ref="B8:B10" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="56"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="56"/>
-      <c r="BT8" s="56"/>
-      <c r="BU8" s="56"/>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="56"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="56"/>
-      <c r="CA8" s="56"/>
-      <c r="CB8" s="56"/>
-      <c r="CC8" s="56"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="56"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="56"/>
-      <c r="CH8" s="56"/>
-      <c r="CI8" s="56"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="95"/>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="95"/>
+      <c r="AX8" s="95"/>
+      <c r="AY8" s="95"/>
+      <c r="AZ8" s="95"/>
+      <c r="BA8" s="95"/>
+      <c r="BB8" s="95"/>
+      <c r="BC8" s="95"/>
+      <c r="BD8" s="95"/>
+      <c r="BE8" s="95"/>
+      <c r="BF8" s="95"/>
+      <c r="BG8" s="95"/>
+      <c r="BH8" s="95"/>
+      <c r="BI8" s="95"/>
+      <c r="BJ8" s="95"/>
+      <c r="BK8" s="95"/>
+      <c r="BL8" s="95"/>
+      <c r="BM8" s="95"/>
+      <c r="BN8" s="95"/>
+      <c r="BO8" s="95"/>
+      <c r="BP8" s="95"/>
+      <c r="BQ8" s="96"/>
+      <c r="BR8" s="96"/>
+      <c r="BS8" s="96"/>
+      <c r="BT8" s="96"/>
+      <c r="BU8" s="96"/>
+      <c r="BV8" s="96"/>
+      <c r="BW8" s="96"/>
+      <c r="BX8" s="96"/>
+      <c r="BY8" s="96"/>
+      <c r="BZ8" s="96"/>
+      <c r="CA8" s="96"/>
+      <c r="CB8" s="96"/>
+      <c r="CC8" s="96"/>
+      <c r="CD8" s="96"/>
+      <c r="CE8" s="96"/>
+      <c r="CF8" s="96"/>
+      <c r="CG8" s="96"/>
+      <c r="CH8" s="96"/>
+      <c r="CI8" s="96"/>
     </row>
-    <row r="9" spans="1:1024" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="45">
+    <row r="9" spans="1:1024" ht="55.15" customHeight="1">
+      <c r="B9" s="87">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="59" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="62" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="59" t="s">
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="59" t="s">
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="57" t="s">
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
-      <c r="BJ9" s="57"/>
-      <c r="BK9" s="57"/>
-      <c r="BL9" s="57"/>
-      <c r="BM9" s="57"/>
-      <c r="BN9" s="57"/>
-      <c r="BO9" s="57"/>
-      <c r="BP9" s="57"/>
-      <c r="BQ9" s="58" t="s">
+      <c r="BF9" s="93"/>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="93"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="93"/>
+      <c r="BM9" s="93"/>
+      <c r="BN9" s="93"/>
+      <c r="BO9" s="93"/>
+      <c r="BP9" s="93"/>
+      <c r="BQ9" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="BR9" s="58"/>
-      <c r="BS9" s="58"/>
-      <c r="BT9" s="58"/>
-      <c r="BU9" s="58"/>
-      <c r="BV9" s="58"/>
-      <c r="BW9" s="58"/>
-      <c r="BX9" s="58"/>
-      <c r="BY9" s="58"/>
-      <c r="BZ9" s="58"/>
-      <c r="CA9" s="58"/>
-      <c r="CB9" s="58"/>
-      <c r="CC9" s="58"/>
-      <c r="CD9" s="58"/>
-      <c r="CE9" s="58"/>
-      <c r="CF9" s="58"/>
-      <c r="CG9" s="58"/>
-      <c r="CH9" s="58"/>
-      <c r="CI9" s="58"/>
+      <c r="BR9" s="94"/>
+      <c r="BS9" s="94"/>
+      <c r="BT9" s="94"/>
+      <c r="BU9" s="94"/>
+      <c r="BV9" s="94"/>
+      <c r="BW9" s="94"/>
+      <c r="BX9" s="94"/>
+      <c r="BY9" s="94"/>
+      <c r="BZ9" s="94"/>
+      <c r="CA9" s="94"/>
+      <c r="CB9" s="94"/>
+      <c r="CC9" s="94"/>
+      <c r="CD9" s="94"/>
+      <c r="CE9" s="94"/>
+      <c r="CF9" s="94"/>
+      <c r="CG9" s="94"/>
+      <c r="CH9" s="94"/>
+      <c r="CI9" s="94"/>
     </row>
-    <row r="10" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="45">
+    <row r="10" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B10" s="87">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="59" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="59" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="59" t="s">
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="57" t="s">
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
-      <c r="BQ10" s="58" t="s">
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="93"/>
+      <c r="BI10" s="93"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="93"/>
+      <c r="BL10" s="93"/>
+      <c r="BM10" s="93"/>
+      <c r="BN10" s="93"/>
+      <c r="BO10" s="93"/>
+      <c r="BP10" s="93"/>
+      <c r="BQ10" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="BR10" s="58"/>
-      <c r="BS10" s="58"/>
-      <c r="BT10" s="58"/>
-      <c r="BU10" s="58"/>
-      <c r="BV10" s="58"/>
-      <c r="BW10" s="58"/>
-      <c r="BX10" s="58"/>
-      <c r="BY10" s="58"/>
-      <c r="BZ10" s="58"/>
-      <c r="CA10" s="58"/>
-      <c r="CB10" s="58"/>
-      <c r="CC10" s="58"/>
-      <c r="CD10" s="58"/>
-      <c r="CE10" s="58"/>
-      <c r="CF10" s="58"/>
-      <c r="CG10" s="58"/>
-      <c r="CH10" s="58"/>
-      <c r="CI10" s="58"/>
+      <c r="BR10" s="94"/>
+      <c r="BS10" s="94"/>
+      <c r="BT10" s="94"/>
+      <c r="BU10" s="94"/>
+      <c r="BV10" s="94"/>
+      <c r="BW10" s="94"/>
+      <c r="BX10" s="94"/>
+      <c r="BY10" s="94"/>
+      <c r="BZ10" s="94"/>
+      <c r="CA10" s="94"/>
+      <c r="CB10" s="94"/>
+      <c r="CC10" s="94"/>
+      <c r="CD10" s="94"/>
+      <c r="CE10" s="94"/>
+      <c r="CF10" s="94"/>
+      <c r="CG10" s="94"/>
+      <c r="CH10" s="94"/>
+      <c r="CI10" s="94"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
-      <c r="BP11" s="61"/>
-      <c r="BQ11" s="67"/>
-      <c r="BR11" s="68"/>
-      <c r="BS11" s="68"/>
-      <c r="BT11" s="68"/>
-      <c r="BU11" s="68"/>
-      <c r="BV11" s="68"/>
-      <c r="BW11" s="68"/>
-      <c r="BX11" s="68"/>
-      <c r="BY11" s="68"/>
-      <c r="BZ11" s="68"/>
-      <c r="CA11" s="68"/>
-      <c r="CB11" s="68"/>
-      <c r="CC11" s="68"/>
-      <c r="CD11" s="68"/>
-      <c r="CE11" s="68"/>
-      <c r="CF11" s="68"/>
-      <c r="CG11" s="68"/>
-      <c r="CH11" s="68"/>
-      <c r="CI11" s="69"/>
+    <row r="11" spans="1:1024" ht="18" customHeight="1">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="81"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="82"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="83"/>
+      <c r="BE11" s="81"/>
+      <c r="BF11" s="82"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="82"/>
+      <c r="BI11" s="82"/>
+      <c r="BJ11" s="82"/>
+      <c r="BK11" s="82"/>
+      <c r="BL11" s="82"/>
+      <c r="BM11" s="82"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="82"/>
+      <c r="BP11" s="83"/>
+      <c r="BQ11" s="84"/>
+      <c r="BR11" s="85"/>
+      <c r="BS11" s="85"/>
+      <c r="BT11" s="85"/>
+      <c r="BU11" s="85"/>
+      <c r="BV11" s="85"/>
+      <c r="BW11" s="85"/>
+      <c r="BX11" s="85"/>
+      <c r="BY11" s="85"/>
+      <c r="BZ11" s="85"/>
+      <c r="CA11" s="85"/>
+      <c r="CB11" s="85"/>
+      <c r="CC11" s="85"/>
+      <c r="CD11" s="85"/>
+      <c r="CE11" s="85"/>
+      <c r="CF11" s="85"/>
+      <c r="CG11" s="85"/>
+      <c r="CH11" s="85"/>
+      <c r="CI11" s="86"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="60"/>
-      <c r="BG12" s="60"/>
-      <c r="BH12" s="60"/>
-      <c r="BI12" s="60"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="60"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="60"/>
-      <c r="BP12" s="61"/>
-      <c r="BQ12" s="67"/>
-      <c r="BR12" s="68"/>
-      <c r="BS12" s="68"/>
-      <c r="BT12" s="68"/>
-      <c r="BU12" s="68"/>
-      <c r="BV12" s="68"/>
-      <c r="BW12" s="68"/>
-      <c r="BX12" s="68"/>
-      <c r="BY12" s="68"/>
-      <c r="BZ12" s="68"/>
-      <c r="CA12" s="68"/>
-      <c r="CB12" s="68"/>
-      <c r="CC12" s="68"/>
-      <c r="CD12" s="68"/>
-      <c r="CE12" s="68"/>
-      <c r="CF12" s="68"/>
-      <c r="CG12" s="68"/>
-      <c r="CH12" s="68"/>
-      <c r="CI12" s="69"/>
+    <row r="12" spans="1:1024" ht="18" customHeight="1">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="82"/>
+      <c r="BD12" s="83"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="82"/>
+      <c r="BG12" s="82"/>
+      <c r="BH12" s="82"/>
+      <c r="BI12" s="82"/>
+      <c r="BJ12" s="82"/>
+      <c r="BK12" s="82"/>
+      <c r="BL12" s="82"/>
+      <c r="BM12" s="82"/>
+      <c r="BN12" s="82"/>
+      <c r="BO12" s="82"/>
+      <c r="BP12" s="83"/>
+      <c r="BQ12" s="84"/>
+      <c r="BR12" s="85"/>
+      <c r="BS12" s="85"/>
+      <c r="BT12" s="85"/>
+      <c r="BU12" s="85"/>
+      <c r="BV12" s="85"/>
+      <c r="BW12" s="85"/>
+      <c r="BX12" s="85"/>
+      <c r="BY12" s="85"/>
+      <c r="BZ12" s="85"/>
+      <c r="CA12" s="85"/>
+      <c r="CB12" s="85"/>
+      <c r="CC12" s="85"/>
+      <c r="CD12" s="85"/>
+      <c r="CE12" s="85"/>
+      <c r="CF12" s="85"/>
+      <c r="CG12" s="85"/>
+      <c r="CH12" s="85"/>
+      <c r="CI12" s="86"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="60"/>
-      <c r="BG13" s="60"/>
-      <c r="BH13" s="60"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="60"/>
-      <c r="BK13" s="60"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="60"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="60"/>
-      <c r="BP13" s="61"/>
-      <c r="BQ13" s="67"/>
-      <c r="BR13" s="68"/>
-      <c r="BS13" s="68"/>
-      <c r="BT13" s="68"/>
-      <c r="BU13" s="68"/>
-      <c r="BV13" s="68"/>
-      <c r="BW13" s="68"/>
-      <c r="BX13" s="68"/>
-      <c r="BY13" s="68"/>
-      <c r="BZ13" s="68"/>
-      <c r="CA13" s="68"/>
-      <c r="CB13" s="68"/>
-      <c r="CC13" s="68"/>
-      <c r="CD13" s="68"/>
-      <c r="CE13" s="68"/>
-      <c r="CF13" s="68"/>
-      <c r="CG13" s="68"/>
-      <c r="CH13" s="68"/>
-      <c r="CI13" s="69"/>
+    <row r="13" spans="1:1024" ht="18" customHeight="1">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="83"/>
+      <c r="BE13" s="81"/>
+      <c r="BF13" s="82"/>
+      <c r="BG13" s="82"/>
+      <c r="BH13" s="82"/>
+      <c r="BI13" s="82"/>
+      <c r="BJ13" s="82"/>
+      <c r="BK13" s="82"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="82"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="82"/>
+      <c r="BP13" s="83"/>
+      <c r="BQ13" s="84"/>
+      <c r="BR13" s="85"/>
+      <c r="BS13" s="85"/>
+      <c r="BT13" s="85"/>
+      <c r="BU13" s="85"/>
+      <c r="BV13" s="85"/>
+      <c r="BW13" s="85"/>
+      <c r="BX13" s="85"/>
+      <c r="BY13" s="85"/>
+      <c r="BZ13" s="85"/>
+      <c r="CA13" s="85"/>
+      <c r="CB13" s="85"/>
+      <c r="CC13" s="85"/>
+      <c r="CD13" s="85"/>
+      <c r="CE13" s="85"/>
+      <c r="CF13" s="85"/>
+      <c r="CG13" s="85"/>
+      <c r="CH13" s="85"/>
+      <c r="CI13" s="86"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="60"/>
-      <c r="BG14" s="60"/>
-      <c r="BH14" s="60"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="60"/>
-      <c r="BM14" s="60"/>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="60"/>
-      <c r="BP14" s="61"/>
-      <c r="BQ14" s="67"/>
-      <c r="BR14" s="68"/>
-      <c r="BS14" s="68"/>
-      <c r="BT14" s="68"/>
-      <c r="BU14" s="68"/>
-      <c r="BV14" s="68"/>
-      <c r="BW14" s="68"/>
-      <c r="BX14" s="68"/>
-      <c r="BY14" s="68"/>
-      <c r="BZ14" s="68"/>
-      <c r="CA14" s="68"/>
-      <c r="CB14" s="68"/>
-      <c r="CC14" s="68"/>
-      <c r="CD14" s="68"/>
-      <c r="CE14" s="68"/>
-      <c r="CF14" s="68"/>
-      <c r="CG14" s="68"/>
-      <c r="CH14" s="68"/>
-      <c r="CI14" s="69"/>
+    <row r="14" spans="1:1024" ht="18" customHeight="1">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="83"/>
+      <c r="BE14" s="81"/>
+      <c r="BF14" s="82"/>
+      <c r="BG14" s="82"/>
+      <c r="BH14" s="82"/>
+      <c r="BI14" s="82"/>
+      <c r="BJ14" s="82"/>
+      <c r="BK14" s="82"/>
+      <c r="BL14" s="82"/>
+      <c r="BM14" s="82"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="82"/>
+      <c r="BP14" s="83"/>
+      <c r="BQ14" s="84"/>
+      <c r="BR14" s="85"/>
+      <c r="BS14" s="85"/>
+      <c r="BT14" s="85"/>
+      <c r="BU14" s="85"/>
+      <c r="BV14" s="85"/>
+      <c r="BW14" s="85"/>
+      <c r="BX14" s="85"/>
+      <c r="BY14" s="85"/>
+      <c r="BZ14" s="85"/>
+      <c r="CA14" s="85"/>
+      <c r="CB14" s="85"/>
+      <c r="CC14" s="85"/>
+      <c r="CD14" s="85"/>
+      <c r="CE14" s="85"/>
+      <c r="CF14" s="85"/>
+      <c r="CG14" s="85"/>
+      <c r="CH14" s="85"/>
+      <c r="CI14" s="86"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="59"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="61"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="60"/>
-      <c r="BG15" s="60"/>
-      <c r="BH15" s="60"/>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="60"/>
-      <c r="BK15" s="60"/>
-      <c r="BL15" s="60"/>
-      <c r="BM15" s="60"/>
-      <c r="BN15" s="60"/>
-      <c r="BO15" s="60"/>
-      <c r="BP15" s="61"/>
-      <c r="BQ15" s="67"/>
-      <c r="BR15" s="68"/>
-      <c r="BS15" s="68"/>
-      <c r="BT15" s="68"/>
-      <c r="BU15" s="68"/>
-      <c r="BV15" s="68"/>
-      <c r="BW15" s="68"/>
-      <c r="BX15" s="68"/>
-      <c r="BY15" s="68"/>
-      <c r="BZ15" s="68"/>
-      <c r="CA15" s="68"/>
-      <c r="CB15" s="68"/>
-      <c r="CC15" s="68"/>
-      <c r="CD15" s="68"/>
-      <c r="CE15" s="68"/>
-      <c r="CF15" s="68"/>
-      <c r="CG15" s="68"/>
-      <c r="CH15" s="68"/>
-      <c r="CI15" s="69"/>
+    <row r="15" spans="1:1024" ht="18" customHeight="1">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="83"/>
+      <c r="BQ15" s="84"/>
+      <c r="BR15" s="85"/>
+      <c r="BS15" s="85"/>
+      <c r="BT15" s="85"/>
+      <c r="BU15" s="85"/>
+      <c r="BV15" s="85"/>
+      <c r="BW15" s="85"/>
+      <c r="BX15" s="85"/>
+      <c r="BY15" s="85"/>
+      <c r="BZ15" s="85"/>
+      <c r="CA15" s="85"/>
+      <c r="CB15" s="85"/>
+      <c r="CC15" s="85"/>
+      <c r="CD15" s="85"/>
+      <c r="CE15" s="85"/>
+      <c r="CF15" s="85"/>
+      <c r="CG15" s="85"/>
+      <c r="CH15" s="85"/>
+      <c r="CI15" s="86"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="70"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="71"/>
-      <c r="BN16" s="71"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="72"/>
-      <c r="BQ16" s="73"/>
-      <c r="BR16" s="74"/>
-      <c r="BS16" s="74"/>
-      <c r="BT16" s="74"/>
-      <c r="BU16" s="74"/>
-      <c r="BV16" s="74"/>
-      <c r="BW16" s="74"/>
-      <c r="BX16" s="74"/>
-      <c r="BY16" s="74"/>
-      <c r="BZ16" s="74"/>
-      <c r="CA16" s="74"/>
-      <c r="CB16" s="74"/>
-      <c r="CC16" s="74"/>
-      <c r="CD16" s="74"/>
-      <c r="CE16" s="74"/>
-      <c r="CF16" s="74"/>
-      <c r="CG16" s="74"/>
-      <c r="CH16" s="74"/>
-      <c r="CI16" s="75"/>
+    <row r="16" spans="1:1024" ht="18" customHeight="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BK16" s="53"/>
+      <c r="BL16" s="53"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="54"/>
+      <c r="BQ16" s="55"/>
+      <c r="BR16" s="56"/>
+      <c r="BS16" s="56"/>
+      <c r="BT16" s="56"/>
+      <c r="BU16" s="56"/>
+      <c r="BV16" s="56"/>
+      <c r="BW16" s="56"/>
+      <c r="BX16" s="56"/>
+      <c r="BY16" s="56"/>
+      <c r="BZ16" s="56"/>
+      <c r="CA16" s="56"/>
+      <c r="CB16" s="56"/>
+      <c r="CC16" s="56"/>
+      <c r="CD16" s="56"/>
+      <c r="CE16" s="56"/>
+      <c r="CF16" s="56"/>
+      <c r="CG16" s="56"/>
+      <c r="CH16" s="56"/>
+      <c r="CI16" s="57"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="72"/>
-      <c r="BE17" s="70"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-      <c r="BM17" s="71"/>
-      <c r="BN17" s="71"/>
-      <c r="BO17" s="71"/>
-      <c r="BP17" s="72"/>
-      <c r="BQ17" s="82"/>
-      <c r="BR17" s="83"/>
-      <c r="BS17" s="83"/>
-      <c r="BT17" s="83"/>
-      <c r="BU17" s="83"/>
-      <c r="BV17" s="83"/>
-      <c r="BW17" s="83"/>
-      <c r="BX17" s="83"/>
-      <c r="BY17" s="83"/>
-      <c r="BZ17" s="83"/>
-      <c r="CA17" s="83"/>
-      <c r="CB17" s="83"/>
-      <c r="CC17" s="83"/>
-      <c r="CD17" s="83"/>
-      <c r="CE17" s="83"/>
-      <c r="CF17" s="83"/>
-      <c r="CG17" s="83"/>
-      <c r="CH17" s="83"/>
-      <c r="CI17" s="84"/>
+    <row r="17" spans="2:87" ht="18" customHeight="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="54"/>
+      <c r="BQ17" s="78"/>
+      <c r="BR17" s="79"/>
+      <c r="BS17" s="79"/>
+      <c r="BT17" s="79"/>
+      <c r="BU17" s="79"/>
+      <c r="BV17" s="79"/>
+      <c r="BW17" s="79"/>
+      <c r="BX17" s="79"/>
+      <c r="BY17" s="79"/>
+      <c r="BZ17" s="79"/>
+      <c r="CA17" s="79"/>
+      <c r="CB17" s="79"/>
+      <c r="CC17" s="79"/>
+      <c r="CD17" s="79"/>
+      <c r="CE17" s="79"/>
+      <c r="CF17" s="79"/>
+      <c r="CG17" s="79"/>
+      <c r="CH17" s="79"/>
+      <c r="CI17" s="80"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="72"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="71"/>
-      <c r="BG18" s="71"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="71"/>
-      <c r="BL18" s="71"/>
-      <c r="BM18" s="71"/>
-      <c r="BN18" s="71"/>
-      <c r="BO18" s="71"/>
-      <c r="BP18" s="72"/>
-      <c r="BQ18" s="85"/>
-      <c r="BR18" s="86"/>
-      <c r="BS18" s="86"/>
-      <c r="BT18" s="86"/>
-      <c r="BU18" s="86"/>
-      <c r="BV18" s="86"/>
-      <c r="BW18" s="86"/>
-      <c r="BX18" s="86"/>
-      <c r="BY18" s="86"/>
-      <c r="BZ18" s="86"/>
-      <c r="CA18" s="86"/>
-      <c r="CB18" s="86"/>
-      <c r="CC18" s="86"/>
-      <c r="CD18" s="86"/>
-      <c r="CE18" s="86"/>
-      <c r="CF18" s="86"/>
-      <c r="CG18" s="86"/>
-      <c r="CH18" s="86"/>
-      <c r="CI18" s="87"/>
+    <row r="18" spans="2:87" ht="18" customHeight="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="53"/>
+      <c r="BG18" s="53"/>
+      <c r="BH18" s="53"/>
+      <c r="BI18" s="53"/>
+      <c r="BJ18" s="53"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="53"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="53"/>
+      <c r="BO18" s="53"/>
+      <c r="BP18" s="54"/>
+      <c r="BQ18" s="75"/>
+      <c r="BR18" s="76"/>
+      <c r="BS18" s="76"/>
+      <c r="BT18" s="76"/>
+      <c r="BU18" s="76"/>
+      <c r="BV18" s="76"/>
+      <c r="BW18" s="76"/>
+      <c r="BX18" s="76"/>
+      <c r="BY18" s="76"/>
+      <c r="BZ18" s="76"/>
+      <c r="CA18" s="76"/>
+      <c r="CB18" s="76"/>
+      <c r="CC18" s="76"/>
+      <c r="CD18" s="76"/>
+      <c r="CE18" s="76"/>
+      <c r="CF18" s="76"/>
+      <c r="CG18" s="76"/>
+      <c r="CH18" s="76"/>
+      <c r="CI18" s="77"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="89"/>
-      <c r="BA19" s="89"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="89"/>
-      <c r="BD19" s="90"/>
-      <c r="BE19" s="88"/>
-      <c r="BF19" s="89"/>
-      <c r="BG19" s="89"/>
-      <c r="BH19" s="89"/>
-      <c r="BI19" s="89"/>
-      <c r="BJ19" s="89"/>
-      <c r="BK19" s="89"/>
-      <c r="BL19" s="89"/>
-      <c r="BM19" s="89"/>
-      <c r="BN19" s="89"/>
-      <c r="BO19" s="89"/>
-      <c r="BP19" s="90"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="92"/>
-      <c r="BS19" s="92"/>
-      <c r="BT19" s="92"/>
-      <c r="BU19" s="92"/>
-      <c r="BV19" s="92"/>
-      <c r="BW19" s="92"/>
-      <c r="BX19" s="92"/>
-      <c r="BY19" s="92"/>
-      <c r="BZ19" s="92"/>
-      <c r="CA19" s="92"/>
-      <c r="CB19" s="92"/>
-      <c r="CC19" s="92"/>
-      <c r="CD19" s="92"/>
-      <c r="CE19" s="92"/>
-      <c r="CF19" s="92"/>
-      <c r="CG19" s="92"/>
-      <c r="CH19" s="92"/>
-      <c r="CI19" s="93"/>
+    <row r="19" spans="2:87" ht="18" customHeight="1">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="69"/>
+      <c r="BR19" s="70"/>
+      <c r="BS19" s="70"/>
+      <c r="BT19" s="70"/>
+      <c r="BU19" s="70"/>
+      <c r="BV19" s="70"/>
+      <c r="BW19" s="70"/>
+      <c r="BX19" s="70"/>
+      <c r="BY19" s="70"/>
+      <c r="BZ19" s="70"/>
+      <c r="CA19" s="70"/>
+      <c r="CB19" s="70"/>
+      <c r="CC19" s="70"/>
+      <c r="CD19" s="70"/>
+      <c r="CE19" s="70"/>
+      <c r="CF19" s="70"/>
+      <c r="CG19" s="70"/>
+      <c r="CH19" s="70"/>
+      <c r="CI19" s="71"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="72"/>
-      <c r="BE20" s="70"/>
-      <c r="BF20" s="71"/>
-      <c r="BG20" s="71"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="71"/>
-      <c r="BL20" s="71"/>
-      <c r="BM20" s="71"/>
-      <c r="BN20" s="71"/>
-      <c r="BO20" s="71"/>
-      <c r="BP20" s="72"/>
-      <c r="BQ20" s="73"/>
-      <c r="BR20" s="74"/>
-      <c r="BS20" s="74"/>
-      <c r="BT20" s="74"/>
-      <c r="BU20" s="74"/>
-      <c r="BV20" s="74"/>
-      <c r="BW20" s="74"/>
-      <c r="BX20" s="74"/>
-      <c r="BY20" s="74"/>
-      <c r="BZ20" s="74"/>
-      <c r="CA20" s="74"/>
-      <c r="CB20" s="74"/>
-      <c r="CC20" s="74"/>
-      <c r="CD20" s="74"/>
-      <c r="CE20" s="74"/>
-      <c r="CF20" s="74"/>
-      <c r="CG20" s="74"/>
-      <c r="CH20" s="74"/>
-      <c r="CI20" s="75"/>
+    <row r="20" spans="2:87" ht="18" customHeight="1">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="53"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="53"/>
+      <c r="BM20" s="53"/>
+      <c r="BN20" s="53"/>
+      <c r="BO20" s="53"/>
+      <c r="BP20" s="54"/>
+      <c r="BQ20" s="55"/>
+      <c r="BR20" s="56"/>
+      <c r="BS20" s="56"/>
+      <c r="BT20" s="56"/>
+      <c r="BU20" s="56"/>
+      <c r="BV20" s="56"/>
+      <c r="BW20" s="56"/>
+      <c r="BX20" s="56"/>
+      <c r="BY20" s="56"/>
+      <c r="BZ20" s="56"/>
+      <c r="CA20" s="56"/>
+      <c r="CB20" s="56"/>
+      <c r="CC20" s="56"/>
+      <c r="CD20" s="56"/>
+      <c r="CE20" s="56"/>
+      <c r="CF20" s="56"/>
+      <c r="CG20" s="56"/>
+      <c r="CH20" s="56"/>
+      <c r="CI20" s="57"/>
     </row>
-    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="111"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="98"/>
-      <c r="AR21" s="112"/>
-      <c r="AS21" s="112"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="98"/>
-      <c r="AW21" s="98"/>
-      <c r="AX21" s="98"/>
-      <c r="AY21" s="98"/>
-      <c r="AZ21" s="98"/>
-      <c r="BA21" s="98"/>
-      <c r="BB21" s="98"/>
-      <c r="BC21" s="98"/>
-      <c r="BD21" s="99"/>
-      <c r="BE21" s="97"/>
-      <c r="BF21" s="98"/>
-      <c r="BG21" s="98"/>
-      <c r="BH21" s="98"/>
-      <c r="BI21" s="98"/>
-      <c r="BJ21" s="98"/>
-      <c r="BK21" s="98"/>
-      <c r="BL21" s="98"/>
-      <c r="BM21" s="98"/>
-      <c r="BN21" s="98"/>
-      <c r="BO21" s="98"/>
-      <c r="BP21" s="99"/>
-      <c r="BQ21" s="100"/>
-      <c r="BR21" s="101"/>
-      <c r="BS21" s="101"/>
-      <c r="BT21" s="101"/>
-      <c r="BU21" s="101"/>
-      <c r="BV21" s="101"/>
-      <c r="BW21" s="101"/>
-      <c r="BX21" s="101"/>
-      <c r="BY21" s="101"/>
-      <c r="BZ21" s="101"/>
-      <c r="CA21" s="101"/>
-      <c r="CB21" s="101"/>
-      <c r="CC21" s="101"/>
-      <c r="CD21" s="101"/>
-      <c r="CE21" s="101"/>
-      <c r="CF21" s="101"/>
-      <c r="CG21" s="101"/>
-      <c r="CH21" s="101"/>
-      <c r="CI21" s="102"/>
+    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="35"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="39"/>
+      <c r="BS21" s="39"/>
+      <c r="BT21" s="39"/>
+      <c r="BU21" s="39"/>
+      <c r="BV21" s="39"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="39"/>
+      <c r="BZ21" s="39"/>
+      <c r="CA21" s="39"/>
+      <c r="CB21" s="39"/>
+      <c r="CC21" s="39"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
+      <c r="CF21" s="39"/>
+      <c r="CG21" s="39"/>
+      <c r="CH21" s="39"/>
+      <c r="CI21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11285,6 +11492,141 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験画面.xlsx
+++ b/画面設計書/画面設計書_3_1_試験画面.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B3CA97-C314-4FA9-8389-B133536890A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="0" windowWidth="17085" windowHeight="11625"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>システム名</t>
   </si>
@@ -142,14 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -224,7 +222,41 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題の解答と考えられる番号をチェック(全部チェックしないといけない）</t>
+    <t>科目</t>
+    <rPh sb="0" eb="2">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択した科目によって表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験ID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしたIDによって表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の解答と考えられる解答をチェック(全部チェックしないといけない）</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
     </rPh>
@@ -235,22 +267,57 @@
       <t>カンガ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
+      <t>カイトウ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>ゼンブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_number</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_user</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_Id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>question_answer</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -299,6 +366,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -715,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,24 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +871,216 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -868,209 +1133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1159,13 +1226,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1173,7 +1240,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF2C4AA9-4AF7-D575-B860-F701A1367930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2C4AA9-4AF7-D575-B860-F701A1367930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,23 +1331,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5652B8B6-15C2-E603-CAC7-6E581E641871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5652B8B6-15C2-E603-CAC7-6E581E641871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,8 +1355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2369820" y="2110740"/>
-          <a:ext cx="1310640" cy="2804160"/>
+          <a:off x="2301240" y="2118360"/>
+          <a:ext cx="3901440" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,14 +1396,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになにな</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになになに</a:t>
+            <a:t>なになになにななになになになに</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1346,28 +1406,28 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１．４３　　　　　　　　</a:t>
+            <a:t>        ４３　　　             </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．５４</a:t>
+            <a:t>　　  ５４                           </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３。６５</a:t>
+            <a:t>        ６５                  </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>４．９８</a:t>
+            <a:t>        ９８</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1377,7 +1437,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　１</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1387,7 +1447,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　２</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1401,7 +1461,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　３</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1411,7 +1471,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　４</a:t>
+            <a:t>　　　</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1420,23 +1480,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA9390F-59D8-3505-8351-D5818F60D2F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA9390F-59D8-3505-8351-D5818F60D2F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,640 +1504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2423160" y="3589020"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="楕円 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{641B93E3-A282-4620-B567-70F3C7D91EB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="3931920"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C238152-6F79-45A0-9FED-008BF735F1FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="4274820"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA89DA9B-F401-4216-8D73-F5F7E0E33A5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2453640" y="4617720"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3AFBE7D-C5C1-4E67-A7B3-BD0D9322370C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4145280" y="2110740"/>
-          <a:ext cx="1310640" cy="2804160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Q2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになにな</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになになに</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１．４３　　　　　　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．５４</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３。６５</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>４．９８</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　１</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　２</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　３</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　４</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A1B16AB-F451-44E6-864E-F57932DA0361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4221480" y="3604260"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="楕円 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163E11D-2267-442B-B495-2045B0E03ADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4236720" y="3954780"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCADA793-37FE-455B-B735-58A42B9038ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4244340" y="4305300"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C6DE875-5A70-433C-AEB1-0A7D842716AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4259580" y="4617720"/>
-          <a:ext cx="160020" cy="175260"/>
+          <a:off x="2491740" y="2537460"/>
+          <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2122,13 +1550,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2136,7 +1564,7 @@
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE2B8D9B-B560-B07F-35AB-D13A95D083BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2B8D9B-B560-B07F-35AB-D13A95D083BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,13 +1621,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2207,7 +1635,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{519C2D7D-13DA-C4DB-1482-6807DAD1AA8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519C2D7D-13DA-C4DB-1482-6807DAD1AA8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,75 +1679,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DFF5FA8-B6CA-4EAF-B138-80FBB43DBDB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1889760" y="1021080"/>
-          <a:ext cx="83820" cy="91440"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2327,7 +1695,7 @@
         <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32B05101-3CCA-475C-8180-11B19B73172D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B05101-3CCA-475C-8180-11B19B73172D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,13 +1741,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2387,7 +1755,7 @@
         <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7B320FD-08B6-4057-A92E-343EF7B44CAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B320FD-08B6-4057-A92E-343EF7B44CAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,23 +1799,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
+        <xdr:cNvPr id="22" name="楕円 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17382C2D-540B-4229-A94E-639A71E995B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,12 +1823,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="971550"/>
-          <a:ext cx="10629900" cy="541020"/>
+          <a:off x="2499360" y="2903220"/>
+          <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2483,19 +1859,572 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA49662-4E92-4A84-8E35-96D8A9EB4B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2506980" y="3086100"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD86B28-19F3-4EC9-BE3D-246533494AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="2727960"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA4C1F7-9557-4E9A-AA10-606A858DAA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2301240" y="3627120"/>
+          <a:ext cx="3901440" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1"/>
-            <a:t> Sylph</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Q2.</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1" baseline="0"/>
-            <a:t> Web</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あらあらあらあらあらあらあらあら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        １　　　             </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　  ８３                           </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        ７４                  </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" baseline="0"/>
-            <a:t>試験アプリ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87BA92D-9409-49DB-8397-2CA34B14A308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="4396740"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26211FFB-8CEA-4CE0-970C-94C8D9D452AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="4221480"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D723DB8-8B1B-49EA-8441-C2E85F5CB5BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="4038600"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED81FFB4-C6CE-4497-A2BD-AA9CAB9A5B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="4572000"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2759,128 +2688,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CJ7" sqref="CJ7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG15" sqref="BG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="2" customWidth="1"/>
-    <col min="2" max="87" width="1.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="2" customWidth="1"/>
+    <col min="2" max="87" width="1.6640625" style="2" customWidth="1"/>
     <col min="88" max="1025" width="9" style="2"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1">
+    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>37</v>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
+        <v>35</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="33" t="s">
-        <v>32</v>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
+        <v>30</v>
       </c>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3819,106 +3748,106 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
-        <v>28</v>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27" t="s">
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4857,7 +4786,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4945,463 +4874,463 @@
       <c r="CH3" s="14"/>
       <c r="CI3" s="14"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="18">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116"/>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116"/>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116"/>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116"/>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="116"/>
-      <c r="BJ6" s="116"/>
-      <c r="BK6" s="116"/>
-      <c r="BL6" s="116"/>
-      <c r="BM6" s="116"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="116"/>
-      <c r="BP6" s="116"/>
-      <c r="BQ6" s="116"/>
-      <c r="BR6" s="116"/>
-      <c r="BS6" s="116"/>
-      <c r="BT6" s="116"/>
-      <c r="BU6" s="116"/>
-      <c r="BV6" s="116"/>
-      <c r="BW6" s="116"/>
-      <c r="BX6" s="116"/>
-      <c r="BY6" s="116"/>
-      <c r="BZ6" s="116"/>
-      <c r="CA6" s="116"/>
-      <c r="CB6" s="116"/>
-      <c r="CC6" s="116"/>
-      <c r="CD6" s="116"/>
-      <c r="CE6" s="116"/>
-      <c r="CF6" s="116"/>
-      <c r="CG6" s="116"/>
-      <c r="CH6" s="116"/>
-      <c r="CI6" s="117"/>
+    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="7"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="116"/>
-      <c r="AP7" s="116"/>
-      <c r="AQ7" s="116"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="116"/>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="116"/>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="116"/>
-      <c r="AZ7" s="116"/>
-      <c r="BA7" s="116"/>
-      <c r="BB7" s="116"/>
-      <c r="BC7" s="116"/>
-      <c r="BD7" s="116"/>
-      <c r="BE7" s="116"/>
-      <c r="BF7" s="116"/>
-      <c r="BG7" s="116"/>
-      <c r="BH7" s="116"/>
-      <c r="BI7" s="116"/>
-      <c r="BJ7" s="116"/>
-      <c r="BK7" s="116"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="116"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="116"/>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="116"/>
-      <c r="CC7" s="116"/>
-      <c r="CD7" s="116"/>
-      <c r="CE7" s="116"/>
-      <c r="CF7" s="116"/>
-      <c r="CG7" s="116"/>
-      <c r="CH7" s="116"/>
-      <c r="CI7" s="117"/>
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="7"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="116"/>
-      <c r="AO8" s="116"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="116"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="116"/>
-      <c r="AX8" s="116"/>
-      <c r="AY8" s="116"/>
-      <c r="AZ8" s="116"/>
-      <c r="BA8" s="116"/>
-      <c r="BB8" s="116"/>
-      <c r="BC8" s="116"/>
-      <c r="BD8" s="116"/>
-      <c r="BE8" s="116"/>
-      <c r="BF8" s="116"/>
-      <c r="BG8" s="116"/>
-      <c r="BH8" s="116"/>
-      <c r="BI8" s="116"/>
-      <c r="BJ8" s="116"/>
-      <c r="BK8" s="116"/>
-      <c r="BL8" s="116"/>
-      <c r="BM8" s="116"/>
-      <c r="BN8" s="116"/>
-      <c r="BO8" s="116"/>
-      <c r="BP8" s="116"/>
-      <c r="BQ8" s="116"/>
-      <c r="BR8" s="116"/>
-      <c r="BS8" s="116"/>
-      <c r="BT8" s="116"/>
-      <c r="BU8" s="116"/>
-      <c r="BV8" s="116"/>
-      <c r="BW8" s="116"/>
-      <c r="BX8" s="116"/>
-      <c r="BY8" s="116"/>
-      <c r="BZ8" s="116"/>
-      <c r="CA8" s="116"/>
-      <c r="CB8" s="116"/>
-      <c r="CC8" s="116"/>
-      <c r="CD8" s="116"/>
-      <c r="CE8" s="116"/>
-      <c r="CF8" s="116"/>
-      <c r="CG8" s="116"/>
-      <c r="CH8" s="116"/>
-      <c r="CI8" s="117"/>
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="6"/>
+      <c r="CI8" s="7"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1">
+    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5489,7 +5418,7 @@
       <c r="CH9" s="6"/>
       <c r="CI9" s="7"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1">
+    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5577,7 +5506,7 @@
       <c r="CH10" s="6"/>
       <c r="CI10" s="7"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1">
+    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5665,7 +5594,7 @@
       <c r="CH11" s="6"/>
       <c r="CI11" s="7"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1">
+    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5753,7 +5682,7 @@
       <c r="CH12" s="6"/>
       <c r="CI12" s="7"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1">
+    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5841,7 +5770,7 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="7"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1">
+    <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5929,7 +5858,7 @@
       <c r="CH14" s="6"/>
       <c r="CI14" s="7"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
+    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6017,7 +5946,7 @@
       <c r="CH15" s="6"/>
       <c r="CI15" s="7"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
+    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6105,7 +6034,7 @@
       <c r="CH16" s="6"/>
       <c r="CI16" s="7"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1">
+    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6193,7 +6122,7 @@
       <c r="CH17" s="6"/>
       <c r="CI17" s="7"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1">
+    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6281,7 +6210,7 @@
       <c r="CH18" s="6"/>
       <c r="CI18" s="7"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1">
+    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6369,7 +6298,7 @@
       <c r="CH19" s="6"/>
       <c r="CI19" s="7"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1">
+    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6457,7 +6386,7 @@
       <c r="CH20" s="6"/>
       <c r="CI20" s="7"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1">
+    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6545,7 +6474,7 @@
       <c r="CH21" s="6"/>
       <c r="CI21" s="7"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1">
+    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6633,7 +6562,7 @@
       <c r="CH22" s="6"/>
       <c r="CI22" s="7"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1">
+    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6721,7 +6650,7 @@
       <c r="CH23" s="6"/>
       <c r="CI23" s="7"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1">
+    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6809,7 +6738,7 @@
       <c r="CH24" s="6"/>
       <c r="CI24" s="7"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1">
+    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -6897,7 +6826,7 @@
       <c r="CH25" s="6"/>
       <c r="CI25" s="7"/>
     </row>
-    <row r="26" spans="2:87" ht="18" customHeight="1">
+    <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6985,7 +6914,7 @@
       <c r="CH26" s="6"/>
       <c r="CI26" s="7"/>
     </row>
-    <row r="27" spans="2:87" ht="18" customHeight="1">
+    <row r="27" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -7073,7 +7002,7 @@
       <c r="CH27" s="6"/>
       <c r="CI27" s="7"/>
     </row>
-    <row r="28" spans="2:87" ht="18" customHeight="1">
+    <row r="28" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7087,17 +7016,17 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
@@ -7117,9 +7046,9 @@
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
@@ -7156,15 +7085,15 @@
       <c r="CC28" s="6"/>
       <c r="CD28" s="6"/>
       <c r="CE28" s="6"/>
-      <c r="CF28" s="6"/>
-      <c r="CG28" s="6"/>
-      <c r="CH28" s="6"/>
-      <c r="CI28" s="7"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
+      <c r="CH28" s="5"/>
+      <c r="CI28" s="8"/>
     </row>
-    <row r="29" spans="2:87" ht="18" customHeight="1">
+    <row r="29" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -7175,17 +7104,17 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -7205,9 +7134,9 @@
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
@@ -7244,365 +7173,109 @@
       <c r="CC29" s="6"/>
       <c r="CD29" s="6"/>
       <c r="CE29" s="6"/>
-      <c r="CF29" s="6"/>
-      <c r="CG29" s="6"/>
-      <c r="CH29" s="6"/>
-      <c r="CI29" s="7"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
+      <c r="CH29" s="5"/>
+      <c r="CI29" s="8"/>
     </row>
-    <row r="30" spans="2:87" ht="18" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
-      <c r="BG30" s="6"/>
-      <c r="BH30" s="6"/>
-      <c r="BI30" s="6"/>
-      <c r="BJ30" s="6"/>
-      <c r="BK30" s="6"/>
-      <c r="BL30" s="6"/>
-      <c r="BM30" s="6"/>
-      <c r="BN30" s="6"/>
-      <c r="BO30" s="6"/>
-      <c r="BP30" s="6"/>
-      <c r="BQ30" s="6"/>
-      <c r="BR30" s="6"/>
-      <c r="BS30" s="6"/>
-      <c r="BT30" s="6"/>
-      <c r="BU30" s="6"/>
-      <c r="BV30" s="6"/>
-      <c r="BW30" s="6"/>
-      <c r="BX30" s="6"/>
-      <c r="BY30" s="6"/>
-      <c r="BZ30" s="6"/>
-      <c r="CA30" s="6"/>
-      <c r="CB30" s="6"/>
-      <c r="CC30" s="6"/>
-      <c r="CD30" s="6"/>
-      <c r="CE30" s="6"/>
-      <c r="CF30" s="6"/>
-      <c r="CG30" s="6"/>
-      <c r="CH30" s="6"/>
-      <c r="CI30" s="7"/>
-    </row>
-    <row r="31" spans="2:87" ht="18" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
-      <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
-      <c r="BG31" s="6"/>
-      <c r="BH31" s="6"/>
-      <c r="BI31" s="6"/>
-      <c r="BJ31" s="6"/>
-      <c r="BK31" s="6"/>
-      <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="6"/>
-      <c r="BP31" s="6"/>
-      <c r="BQ31" s="6"/>
-      <c r="BR31" s="6"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="6"/>
-      <c r="BU31" s="6"/>
-      <c r="BV31" s="6"/>
-      <c r="BW31" s="6"/>
-      <c r="BX31" s="6"/>
-      <c r="BY31" s="6"/>
-      <c r="BZ31" s="6"/>
-      <c r="CA31" s="6"/>
-      <c r="CB31" s="6"/>
-      <c r="CC31" s="6"/>
-      <c r="CD31" s="6"/>
-      <c r="CE31" s="6"/>
-      <c r="CF31" s="5"/>
-      <c r="CG31" s="5"/>
-      <c r="CH31" s="5"/>
-      <c r="CI31" s="8"/>
-    </row>
-    <row r="32" spans="2:87" ht="18" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
-      <c r="AU32" s="6"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="6"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
-      <c r="BF32" s="6"/>
-      <c r="BG32" s="6"/>
-      <c r="BH32" s="6"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="6"/>
-      <c r="BK32" s="6"/>
-      <c r="BL32" s="6"/>
-      <c r="BM32" s="6"/>
-      <c r="BN32" s="6"/>
-      <c r="BO32" s="6"/>
-      <c r="BP32" s="6"/>
-      <c r="BQ32" s="6"/>
-      <c r="BR32" s="6"/>
-      <c r="BS32" s="6"/>
-      <c r="BT32" s="6"/>
-      <c r="BU32" s="6"/>
-      <c r="BV32" s="6"/>
-      <c r="BW32" s="6"/>
-      <c r="BX32" s="6"/>
-      <c r="BY32" s="6"/>
-      <c r="BZ32" s="6"/>
-      <c r="CA32" s="6"/>
-      <c r="CB32" s="6"/>
-      <c r="CC32" s="6"/>
-      <c r="CD32" s="6"/>
-      <c r="CE32" s="6"/>
-      <c r="CF32" s="5"/>
-      <c r="CG32" s="5"/>
-      <c r="CH32" s="5"/>
-      <c r="CI32" s="8"/>
-    </row>
-    <row r="33" spans="2:87" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
-      <c r="BK33" s="10"/>
-      <c r="BL33" s="10"/>
-      <c r="BM33" s="10"/>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="10"/>
-      <c r="BP33" s="10"/>
-      <c r="BQ33" s="10"/>
-      <c r="BR33" s="11"/>
-      <c r="BS33" s="11"/>
-      <c r="BT33" s="11"/>
-      <c r="BU33" s="11"/>
-      <c r="BV33" s="11"/>
-      <c r="BW33" s="11"/>
-      <c r="BX33" s="11"/>
-      <c r="BY33" s="11"/>
-      <c r="BZ33" s="11"/>
-      <c r="CA33" s="11"/>
-      <c r="CB33" s="11"/>
-      <c r="CC33" s="11"/>
-      <c r="CD33" s="11"/>
-      <c r="CE33" s="11"/>
-      <c r="CF33" s="11"/>
-      <c r="CG33" s="11"/>
-      <c r="CH33" s="11"/>
-      <c r="CI33" s="12"/>
+    <row r="30" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="11"/>
+      <c r="BS30" s="11"/>
+      <c r="BT30" s="11"/>
+      <c r="BU30" s="11"/>
+      <c r="BV30" s="11"/>
+      <c r="BW30" s="11"/>
+      <c r="BX30" s="11"/>
+      <c r="BY30" s="11"/>
+      <c r="BZ30" s="11"/>
+      <c r="CA30" s="11"/>
+      <c r="CB30" s="11"/>
+      <c r="CC30" s="11"/>
+      <c r="CD30" s="11"/>
+      <c r="CE30" s="11"/>
+      <c r="CF30" s="11"/>
+      <c r="CG30" s="11"/>
+      <c r="CH30" s="11"/>
+      <c r="CI30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7617,14 +7290,6 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7638,121 +7303,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE12" sqref="BE12:BP12"/>
+      <selection activeCell="BQ13" sqref="BQ13:CI13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="2"/>
-    <col min="2" max="87" width="1.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="2"/>
+    <col min="2" max="87" width="1.6640625" style="2" customWidth="1"/>
     <col min="88" max="1025" width="9" style="2"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1">
+    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>37</v>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
+        <v>35</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="33" t="s">
-        <v>32</v>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
+        <v>30</v>
       </c>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8691,106 +8356,106 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
-        <v>28</v>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27" t="s">
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9729,7 +9394,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -9817,1659 +9482,1814 @@
       <c r="CH3" s="14"/>
       <c r="CI3" s="14"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="18">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>29</v>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>27</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
-        <v>30</v>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20" t="s">
-        <v>29</v>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
+        <v>27</v>
       </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="105" t="s">
+    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105"/>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
-      <c r="BQ6" s="105"/>
-      <c r="BR6" s="105"/>
-      <c r="BS6" s="105"/>
-      <c r="BT6" s="105"/>
-      <c r="BU6" s="105"/>
-      <c r="BV6" s="105"/>
-      <c r="BW6" s="105"/>
-      <c r="BX6" s="105"/>
-      <c r="BY6" s="105"/>
-      <c r="BZ6" s="105"/>
-      <c r="CA6" s="105"/>
-      <c r="CB6" s="105"/>
-      <c r="CC6" s="105"/>
-      <c r="CD6" s="105"/>
-      <c r="CE6" s="105"/>
-      <c r="CF6" s="105"/>
-      <c r="CG6" s="105"/>
-      <c r="CH6" s="105"/>
-      <c r="CI6" s="105"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="35"/>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="35"/>
+      <c r="BS6" s="35"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="35"/>
+      <c r="BV6" s="35"/>
+      <c r="BW6" s="35"/>
+      <c r="BX6" s="35"/>
+      <c r="BY6" s="35"/>
+      <c r="BZ6" s="35"/>
+      <c r="CA6" s="35"/>
+      <c r="CB6" s="35"/>
+      <c r="CC6" s="35"/>
+      <c r="CD6" s="35"/>
+      <c r="CE6" s="35"/>
+      <c r="CF6" s="35"/>
+      <c r="CG6" s="35"/>
+      <c r="CH6" s="35"/>
+      <c r="CI6" s="35"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="106" t="s">
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="107" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="107" t="s">
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="107" t="s">
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="107" t="s">
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="108"/>
-      <c r="AM7" s="108"/>
-      <c r="AN7" s="108"/>
-      <c r="AO7" s="108"/>
-      <c r="AP7" s="108"/>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="113"/>
-      <c r="AU7" s="110" t="s">
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="110"/>
-      <c r="AW7" s="110"/>
-      <c r="AX7" s="110"/>
-      <c r="AY7" s="110"/>
-      <c r="AZ7" s="110"/>
-      <c r="BA7" s="110"/>
-      <c r="BB7" s="110"/>
-      <c r="BC7" s="110"/>
-      <c r="BD7" s="110"/>
-      <c r="BE7" s="110"/>
-      <c r="BF7" s="110"/>
-      <c r="BG7" s="110"/>
-      <c r="BH7" s="110"/>
-      <c r="BI7" s="110"/>
-      <c r="BJ7" s="110"/>
-      <c r="BK7" s="110"/>
-      <c r="BL7" s="110"/>
-      <c r="BM7" s="110"/>
-      <c r="BN7" s="110"/>
-      <c r="BO7" s="110"/>
-      <c r="BP7" s="110"/>
-      <c r="BQ7" s="111" t="s">
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="111"/>
-      <c r="BS7" s="111"/>
-      <c r="BT7" s="111"/>
-      <c r="BU7" s="111"/>
-      <c r="BV7" s="111"/>
-      <c r="BW7" s="111"/>
-      <c r="BX7" s="111"/>
-      <c r="BY7" s="111"/>
-      <c r="BZ7" s="111"/>
-      <c r="CA7" s="111"/>
-      <c r="CB7" s="111"/>
-      <c r="CC7" s="111"/>
-      <c r="CD7" s="111"/>
-      <c r="CE7" s="111"/>
-      <c r="CF7" s="111"/>
-      <c r="CG7" s="111"/>
-      <c r="CH7" s="111"/>
-      <c r="CI7" s="111"/>
+      <c r="BR7" s="41"/>
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="41"/>
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="41"/>
+      <c r="CD7" s="41"/>
+      <c r="CE7" s="41"/>
+      <c r="CF7" s="41"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="41"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="87">
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="46">
         <f t="shared" ref="B8:B10" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="97" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="95"/>
-      <c r="AW8" s="95"/>
-      <c r="AX8" s="95"/>
-      <c r="AY8" s="95"/>
-      <c r="AZ8" s="95"/>
-      <c r="BA8" s="95"/>
-      <c r="BB8" s="95"/>
-      <c r="BC8" s="95"/>
-      <c r="BD8" s="95"/>
-      <c r="BE8" s="95"/>
-      <c r="BF8" s="95"/>
-      <c r="BG8" s="95"/>
-      <c r="BH8" s="95"/>
-      <c r="BI8" s="95"/>
-      <c r="BJ8" s="95"/>
-      <c r="BK8" s="95"/>
-      <c r="BL8" s="95"/>
-      <c r="BM8" s="95"/>
-      <c r="BN8" s="95"/>
-      <c r="BO8" s="95"/>
-      <c r="BP8" s="95"/>
-      <c r="BQ8" s="96"/>
-      <c r="BR8" s="96"/>
-      <c r="BS8" s="96"/>
-      <c r="BT8" s="96"/>
-      <c r="BU8" s="96"/>
-      <c r="BV8" s="96"/>
-      <c r="BW8" s="96"/>
-      <c r="BX8" s="96"/>
-      <c r="BY8" s="96"/>
-      <c r="BZ8" s="96"/>
-      <c r="CA8" s="96"/>
-      <c r="CB8" s="96"/>
-      <c r="CC8" s="96"/>
-      <c r="CD8" s="96"/>
-      <c r="CE8" s="96"/>
-      <c r="CF8" s="96"/>
-      <c r="CG8" s="96"/>
-      <c r="CH8" s="96"/>
-      <c r="CI8" s="96"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="44"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="45"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="45"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="45"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="45"/>
+      <c r="BY8" s="45"/>
+      <c r="BZ8" s="45"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="45"/>
+      <c r="CC8" s="45"/>
+      <c r="CD8" s="45"/>
+      <c r="CE8" s="45"/>
+      <c r="CF8" s="45"/>
+      <c r="CG8" s="45"/>
+      <c r="CH8" s="45"/>
+      <c r="CI8" s="45"/>
     </row>
-    <row r="9" spans="1:1024" ht="55.15" customHeight="1">
-      <c r="B9" s="87">
+    <row r="9" spans="1:1024" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="81" t="s">
-        <v>33</v>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="57" t="s">
+        <v>31</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="90" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="81" t="s">
-        <v>34</v>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="57" t="s">
+        <v>32</v>
       </c>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="81" t="s">
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="82"/>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="82"/>
-      <c r="BA9" s="82"/>
-      <c r="BB9" s="82"/>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="93" t="s">
+      <c r="AV9" s="58"/>
+      <c r="AW9" s="58"/>
+      <c r="AX9" s="58"/>
+      <c r="AY9" s="58"/>
+      <c r="AZ9" s="58"/>
+      <c r="BA9" s="58"/>
+      <c r="BB9" s="58"/>
+      <c r="BC9" s="58"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
-      <c r="BJ9" s="93"/>
-      <c r="BK9" s="93"/>
-      <c r="BL9" s="93"/>
-      <c r="BM9" s="93"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="93"/>
-      <c r="BQ9" s="94" t="s">
-        <v>38</v>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
+      <c r="BM9" s="60"/>
+      <c r="BN9" s="60"/>
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="60"/>
+      <c r="BQ9" s="61" t="s">
+        <v>40</v>
       </c>
-      <c r="BR9" s="94"/>
-      <c r="BS9" s="94"/>
-      <c r="BT9" s="94"/>
-      <c r="BU9" s="94"/>
-      <c r="BV9" s="94"/>
-      <c r="BW9" s="94"/>
-      <c r="BX9" s="94"/>
-      <c r="BY9" s="94"/>
-      <c r="BZ9" s="94"/>
-      <c r="CA9" s="94"/>
-      <c r="CB9" s="94"/>
-      <c r="CC9" s="94"/>
-      <c r="CD9" s="94"/>
-      <c r="CE9" s="94"/>
-      <c r="CF9" s="94"/>
-      <c r="CG9" s="94"/>
-      <c r="CH9" s="94"/>
-      <c r="CI9" s="94"/>
+      <c r="BR9" s="61"/>
+      <c r="BS9" s="61"/>
+      <c r="BT9" s="61"/>
+      <c r="BU9" s="61"/>
+      <c r="BV9" s="61"/>
+      <c r="BW9" s="61"/>
+      <c r="BX9" s="61"/>
+      <c r="BY9" s="61"/>
+      <c r="BZ9" s="61"/>
+      <c r="CA9" s="61"/>
+      <c r="CB9" s="61"/>
+      <c r="CC9" s="61"/>
+      <c r="CD9" s="61"/>
+      <c r="CE9" s="61"/>
+      <c r="CF9" s="61"/>
+      <c r="CG9" s="61"/>
+      <c r="CH9" s="61"/>
+      <c r="CI9" s="61"/>
     </row>
-    <row r="10" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B10" s="87">
+    <row r="10" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="81" t="s">
-        <v>35</v>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="57" t="s">
+        <v>33</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="93" t="s">
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="93"/>
-      <c r="BH10" s="93"/>
-      <c r="BI10" s="93"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="93"/>
-      <c r="BL10" s="93"/>
-      <c r="BM10" s="93"/>
-      <c r="BN10" s="93"/>
-      <c r="BO10" s="93"/>
-      <c r="BP10" s="93"/>
-      <c r="BQ10" s="94" t="s">
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="58"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="58"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="58"/>
+      <c r="BB10" s="58"/>
+      <c r="BC10" s="58"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF10" s="60"/>
+      <c r="BG10" s="60"/>
+      <c r="BH10" s="60"/>
+      <c r="BI10" s="60"/>
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="60"/>
+      <c r="BM10" s="60"/>
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="60"/>
+      <c r="BP10" s="60"/>
+      <c r="BQ10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="61"/>
+      <c r="CG10" s="61"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+    </row>
+    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="46">
+        <v>4</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BR10" s="94"/>
-      <c r="BS10" s="94"/>
-      <c r="BT10" s="94"/>
-      <c r="BU10" s="94"/>
-      <c r="BV10" s="94"/>
-      <c r="BW10" s="94"/>
-      <c r="BX10" s="94"/>
-      <c r="BY10" s="94"/>
-      <c r="BZ10" s="94"/>
-      <c r="CA10" s="94"/>
-      <c r="CB10" s="94"/>
-      <c r="CC10" s="94"/>
-      <c r="CD10" s="94"/>
-      <c r="CE10" s="94"/>
-      <c r="CF10" s="94"/>
-      <c r="CG10" s="94"/>
-      <c r="CH10" s="94"/>
-      <c r="CI10" s="94"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="58"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="58"/>
+      <c r="BK11" s="58"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
+      <c r="BP11" s="59"/>
+      <c r="BQ11" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR11" s="70"/>
+      <c r="BS11" s="70"/>
+      <c r="BT11" s="70"/>
+      <c r="BU11" s="70"/>
+      <c r="BV11" s="70"/>
+      <c r="BW11" s="70"/>
+      <c r="BX11" s="70"/>
+      <c r="BY11" s="70"/>
+      <c r="BZ11" s="70"/>
+      <c r="CA11" s="70"/>
+      <c r="CB11" s="70"/>
+      <c r="CC11" s="70"/>
+      <c r="CD11" s="70"/>
+      <c r="CE11" s="70"/>
+      <c r="CF11" s="70"/>
+      <c r="CG11" s="70"/>
+      <c r="CH11" s="70"/>
+      <c r="CI11" s="71"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="82"/>
-      <c r="AY11" s="82"/>
-      <c r="AZ11" s="82"/>
-      <c r="BA11" s="82"/>
-      <c r="BB11" s="82"/>
-      <c r="BC11" s="82"/>
-      <c r="BD11" s="83"/>
-      <c r="BE11" s="81"/>
-      <c r="BF11" s="82"/>
-      <c r="BG11" s="82"/>
-      <c r="BH11" s="82"/>
-      <c r="BI11" s="82"/>
-      <c r="BJ11" s="82"/>
-      <c r="BK11" s="82"/>
-      <c r="BL11" s="82"/>
-      <c r="BM11" s="82"/>
-      <c r="BN11" s="82"/>
-      <c r="BO11" s="82"/>
-      <c r="BP11" s="83"/>
-      <c r="BQ11" s="84"/>
-      <c r="BR11" s="85"/>
-      <c r="BS11" s="85"/>
-      <c r="BT11" s="85"/>
-      <c r="BU11" s="85"/>
-      <c r="BV11" s="85"/>
-      <c r="BW11" s="85"/>
-      <c r="BX11" s="85"/>
-      <c r="BY11" s="85"/>
-      <c r="BZ11" s="85"/>
-      <c r="CA11" s="85"/>
-      <c r="CB11" s="85"/>
-      <c r="CC11" s="85"/>
-      <c r="CD11" s="85"/>
-      <c r="CE11" s="85"/>
-      <c r="CF11" s="85"/>
-      <c r="CG11" s="85"/>
-      <c r="CH11" s="85"/>
-      <c r="CI11" s="86"/>
+    <row r="12" spans="1:1024" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="46">
+        <v>5</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="58"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="58"/>
+      <c r="BO12" s="58"/>
+      <c r="BP12" s="59"/>
+      <c r="BQ12" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR12" s="70"/>
+      <c r="BS12" s="70"/>
+      <c r="BT12" s="70"/>
+      <c r="BU12" s="70"/>
+      <c r="BV12" s="70"/>
+      <c r="BW12" s="70"/>
+      <c r="BX12" s="70"/>
+      <c r="BY12" s="70"/>
+      <c r="BZ12" s="70"/>
+      <c r="CA12" s="70"/>
+      <c r="CB12" s="70"/>
+      <c r="CC12" s="70"/>
+      <c r="CD12" s="70"/>
+      <c r="CE12" s="70"/>
+      <c r="CF12" s="70"/>
+      <c r="CG12" s="70"/>
+      <c r="CH12" s="70"/>
+      <c r="CI12" s="71"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="81"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="82"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="81"/>
-      <c r="BF12" s="82"/>
-      <c r="BG12" s="82"/>
-      <c r="BH12" s="82"/>
-      <c r="BI12" s="82"/>
-      <c r="BJ12" s="82"/>
-      <c r="BK12" s="82"/>
-      <c r="BL12" s="82"/>
-      <c r="BM12" s="82"/>
-      <c r="BN12" s="82"/>
-      <c r="BO12" s="82"/>
-      <c r="BP12" s="83"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="85"/>
-      <c r="BS12" s="85"/>
-      <c r="BT12" s="85"/>
-      <c r="BU12" s="85"/>
-      <c r="BV12" s="85"/>
-      <c r="BW12" s="85"/>
-      <c r="BX12" s="85"/>
-      <c r="BY12" s="85"/>
-      <c r="BZ12" s="85"/>
-      <c r="CA12" s="85"/>
-      <c r="CB12" s="85"/>
-      <c r="CC12" s="85"/>
-      <c r="CD12" s="85"/>
-      <c r="CE12" s="85"/>
-      <c r="CF12" s="85"/>
-      <c r="CG12" s="85"/>
-      <c r="CH12" s="85"/>
-      <c r="CI12" s="86"/>
+    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="59"/>
+      <c r="BQ13" s="69"/>
+      <c r="BR13" s="70"/>
+      <c r="BS13" s="70"/>
+      <c r="BT13" s="70"/>
+      <c r="BU13" s="70"/>
+      <c r="BV13" s="70"/>
+      <c r="BW13" s="70"/>
+      <c r="BX13" s="70"/>
+      <c r="BY13" s="70"/>
+      <c r="BZ13" s="70"/>
+      <c r="CA13" s="70"/>
+      <c r="CB13" s="70"/>
+      <c r="CC13" s="70"/>
+      <c r="CD13" s="70"/>
+      <c r="CE13" s="70"/>
+      <c r="CF13" s="70"/>
+      <c r="CG13" s="70"/>
+      <c r="CH13" s="70"/>
+      <c r="CI13" s="71"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="83"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="82"/>
-      <c r="BG13" s="82"/>
-      <c r="BH13" s="82"/>
-      <c r="BI13" s="82"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="82"/>
-      <c r="BL13" s="82"/>
-      <c r="BM13" s="82"/>
-      <c r="BN13" s="82"/>
-      <c r="BO13" s="82"/>
-      <c r="BP13" s="83"/>
-      <c r="BQ13" s="84"/>
-      <c r="BR13" s="85"/>
-      <c r="BS13" s="85"/>
-      <c r="BT13" s="85"/>
-      <c r="BU13" s="85"/>
-      <c r="BV13" s="85"/>
-      <c r="BW13" s="85"/>
-      <c r="BX13" s="85"/>
-      <c r="BY13" s="85"/>
-      <c r="BZ13" s="85"/>
-      <c r="CA13" s="85"/>
-      <c r="CB13" s="85"/>
-      <c r="CC13" s="85"/>
-      <c r="CD13" s="85"/>
-      <c r="CE13" s="85"/>
-      <c r="CF13" s="85"/>
-      <c r="CG13" s="85"/>
-      <c r="CH13" s="85"/>
-      <c r="CI13" s="86"/>
+    <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="58"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="69"/>
+      <c r="BR14" s="70"/>
+      <c r="BS14" s="70"/>
+      <c r="BT14" s="70"/>
+      <c r="BU14" s="70"/>
+      <c r="BV14" s="70"/>
+      <c r="BW14" s="70"/>
+      <c r="BX14" s="70"/>
+      <c r="BY14" s="70"/>
+      <c r="BZ14" s="70"/>
+      <c r="CA14" s="70"/>
+      <c r="CB14" s="70"/>
+      <c r="CC14" s="70"/>
+      <c r="CD14" s="70"/>
+      <c r="CE14" s="70"/>
+      <c r="CF14" s="70"/>
+      <c r="CG14" s="70"/>
+      <c r="CH14" s="70"/>
+      <c r="CI14" s="71"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="81"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="82"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="82"/>
-      <c r="BG14" s="82"/>
-      <c r="BH14" s="82"/>
-      <c r="BI14" s="82"/>
-      <c r="BJ14" s="82"/>
-      <c r="BK14" s="82"/>
-      <c r="BL14" s="82"/>
-      <c r="BM14" s="82"/>
-      <c r="BN14" s="82"/>
-      <c r="BO14" s="82"/>
-      <c r="BP14" s="83"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="85"/>
-      <c r="BT14" s="85"/>
-      <c r="BU14" s="85"/>
-      <c r="BV14" s="85"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="85"/>
-      <c r="BY14" s="85"/>
-      <c r="BZ14" s="85"/>
-      <c r="CA14" s="85"/>
-      <c r="CB14" s="85"/>
-      <c r="CC14" s="85"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="85"/>
-      <c r="CG14" s="85"/>
-      <c r="CH14" s="85"/>
-      <c r="CI14" s="86"/>
+    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="58"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="58"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="58"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="58"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="58"/>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="58"/>
+      <c r="BO15" s="58"/>
+      <c r="BP15" s="59"/>
+      <c r="BQ15" s="69"/>
+      <c r="BR15" s="70"/>
+      <c r="BS15" s="70"/>
+      <c r="BT15" s="70"/>
+      <c r="BU15" s="70"/>
+      <c r="BV15" s="70"/>
+      <c r="BW15" s="70"/>
+      <c r="BX15" s="70"/>
+      <c r="BY15" s="70"/>
+      <c r="BZ15" s="70"/>
+      <c r="CA15" s="70"/>
+      <c r="CB15" s="70"/>
+      <c r="CC15" s="70"/>
+      <c r="CD15" s="70"/>
+      <c r="CE15" s="70"/>
+      <c r="CF15" s="70"/>
+      <c r="CG15" s="70"/>
+      <c r="CH15" s="70"/>
+      <c r="CI15" s="71"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="BB15" s="82"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
-      <c r="BJ15" s="82"/>
-      <c r="BK15" s="82"/>
-      <c r="BL15" s="82"/>
-      <c r="BM15" s="82"/>
-      <c r="BN15" s="82"/>
-      <c r="BO15" s="82"/>
-      <c r="BP15" s="83"/>
-      <c r="BQ15" s="84"/>
-      <c r="BR15" s="85"/>
-      <c r="BS15" s="85"/>
-      <c r="BT15" s="85"/>
-      <c r="BU15" s="85"/>
-      <c r="BV15" s="85"/>
-      <c r="BW15" s="85"/>
-      <c r="BX15" s="85"/>
-      <c r="BY15" s="85"/>
-      <c r="BZ15" s="85"/>
-      <c r="CA15" s="85"/>
-      <c r="CB15" s="85"/>
-      <c r="CC15" s="85"/>
-      <c r="CD15" s="85"/>
-      <c r="CE15" s="85"/>
-      <c r="CF15" s="85"/>
-      <c r="CG15" s="85"/>
-      <c r="CH15" s="85"/>
-      <c r="CI15" s="86"/>
+    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="73"/>
+      <c r="BL16" s="73"/>
+      <c r="BM16" s="73"/>
+      <c r="BN16" s="73"/>
+      <c r="BO16" s="73"/>
+      <c r="BP16" s="74"/>
+      <c r="BQ16" s="75"/>
+      <c r="BR16" s="76"/>
+      <c r="BS16" s="76"/>
+      <c r="BT16" s="76"/>
+      <c r="BU16" s="76"/>
+      <c r="BV16" s="76"/>
+      <c r="BW16" s="76"/>
+      <c r="BX16" s="76"/>
+      <c r="BY16" s="76"/>
+      <c r="BZ16" s="76"/>
+      <c r="CA16" s="76"/>
+      <c r="CB16" s="76"/>
+      <c r="CC16" s="76"/>
+      <c r="CD16" s="76"/>
+      <c r="CE16" s="76"/>
+      <c r="CF16" s="76"/>
+      <c r="CG16" s="76"/>
+      <c r="CH16" s="76"/>
+      <c r="CI16" s="77"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BK16" s="53"/>
-      <c r="BL16" s="53"/>
-      <c r="BM16" s="53"/>
-      <c r="BN16" s="53"/>
-      <c r="BO16" s="53"/>
-      <c r="BP16" s="54"/>
-      <c r="BQ16" s="55"/>
-      <c r="BR16" s="56"/>
-      <c r="BS16" s="56"/>
-      <c r="BT16" s="56"/>
-      <c r="BU16" s="56"/>
-      <c r="BV16" s="56"/>
-      <c r="BW16" s="56"/>
-      <c r="BX16" s="56"/>
-      <c r="BY16" s="56"/>
-      <c r="BZ16" s="56"/>
-      <c r="CA16" s="56"/>
-      <c r="CB16" s="56"/>
-      <c r="CC16" s="56"/>
-      <c r="CD16" s="56"/>
-      <c r="CE16" s="56"/>
-      <c r="CF16" s="56"/>
-      <c r="CG16" s="56"/>
-      <c r="CH16" s="56"/>
-      <c r="CI16" s="57"/>
+    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="72"/>
+      <c r="BF17" s="73"/>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="73"/>
+      <c r="BJ17" s="73"/>
+      <c r="BK17" s="73"/>
+      <c r="BL17" s="73"/>
+      <c r="BM17" s="73"/>
+      <c r="BN17" s="73"/>
+      <c r="BO17" s="73"/>
+      <c r="BP17" s="74"/>
+      <c r="BQ17" s="84"/>
+      <c r="BR17" s="85"/>
+      <c r="BS17" s="85"/>
+      <c r="BT17" s="85"/>
+      <c r="BU17" s="85"/>
+      <c r="BV17" s="85"/>
+      <c r="BW17" s="85"/>
+      <c r="BX17" s="85"/>
+      <c r="BY17" s="85"/>
+      <c r="BZ17" s="85"/>
+      <c r="CA17" s="85"/>
+      <c r="CB17" s="85"/>
+      <c r="CC17" s="85"/>
+      <c r="CD17" s="85"/>
+      <c r="CE17" s="85"/>
+      <c r="CF17" s="85"/>
+      <c r="CG17" s="85"/>
+      <c r="CH17" s="85"/>
+      <c r="CI17" s="86"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="53"/>
-      <c r="AO17" s="53"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="53"/>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="54"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="53"/>
-      <c r="BG17" s="53"/>
-      <c r="BH17" s="53"/>
-      <c r="BI17" s="53"/>
-      <c r="BJ17" s="53"/>
-      <c r="BK17" s="53"/>
-      <c r="BL17" s="53"/>
-      <c r="BM17" s="53"/>
-      <c r="BN17" s="53"/>
-      <c r="BO17" s="53"/>
-      <c r="BP17" s="54"/>
-      <c r="BQ17" s="78"/>
-      <c r="BR17" s="79"/>
-      <c r="BS17" s="79"/>
-      <c r="BT17" s="79"/>
-      <c r="BU17" s="79"/>
-      <c r="BV17" s="79"/>
-      <c r="BW17" s="79"/>
-      <c r="BX17" s="79"/>
-      <c r="BY17" s="79"/>
-      <c r="BZ17" s="79"/>
-      <c r="CA17" s="79"/>
-      <c r="CB17" s="79"/>
-      <c r="CC17" s="79"/>
-      <c r="CD17" s="79"/>
-      <c r="CE17" s="79"/>
-      <c r="CF17" s="79"/>
-      <c r="CG17" s="79"/>
-      <c r="CH17" s="79"/>
-      <c r="CI17" s="80"/>
+    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
+      <c r="BK18" s="73"/>
+      <c r="BL18" s="73"/>
+      <c r="BM18" s="73"/>
+      <c r="BN18" s="73"/>
+      <c r="BO18" s="73"/>
+      <c r="BP18" s="74"/>
+      <c r="BQ18" s="87"/>
+      <c r="BR18" s="88"/>
+      <c r="BS18" s="88"/>
+      <c r="BT18" s="88"/>
+      <c r="BU18" s="88"/>
+      <c r="BV18" s="88"/>
+      <c r="BW18" s="88"/>
+      <c r="BX18" s="88"/>
+      <c r="BY18" s="88"/>
+      <c r="BZ18" s="88"/>
+      <c r="CA18" s="88"/>
+      <c r="CB18" s="88"/>
+      <c r="CC18" s="88"/>
+      <c r="CD18" s="88"/>
+      <c r="CE18" s="88"/>
+      <c r="CF18" s="88"/>
+      <c r="CG18" s="88"/>
+      <c r="CH18" s="88"/>
+      <c r="CI18" s="89"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
-      <c r="AQ18" s="53"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="53"/>
-      <c r="BA18" s="53"/>
-      <c r="BB18" s="53"/>
-      <c r="BC18" s="53"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="53"/>
-      <c r="BG18" s="53"/>
-      <c r="BH18" s="53"/>
-      <c r="BI18" s="53"/>
-      <c r="BJ18" s="53"/>
-      <c r="BK18" s="53"/>
-      <c r="BL18" s="53"/>
-      <c r="BM18" s="53"/>
-      <c r="BN18" s="53"/>
-      <c r="BO18" s="53"/>
-      <c r="BP18" s="54"/>
-      <c r="BQ18" s="75"/>
-      <c r="BR18" s="76"/>
-      <c r="BS18" s="76"/>
-      <c r="BT18" s="76"/>
-      <c r="BU18" s="76"/>
-      <c r="BV18" s="76"/>
-      <c r="BW18" s="76"/>
-      <c r="BX18" s="76"/>
-      <c r="BY18" s="76"/>
-      <c r="BZ18" s="76"/>
-      <c r="CA18" s="76"/>
-      <c r="CB18" s="76"/>
-      <c r="CC18" s="76"/>
-      <c r="CD18" s="76"/>
-      <c r="CE18" s="76"/>
-      <c r="CF18" s="76"/>
-      <c r="CG18" s="76"/>
-      <c r="CH18" s="76"/>
-      <c r="CI18" s="77"/>
+    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="97"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="90"/>
+      <c r="BF19" s="91"/>
+      <c r="BG19" s="91"/>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
+      <c r="BJ19" s="91"/>
+      <c r="BK19" s="91"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="91"/>
+      <c r="BN19" s="91"/>
+      <c r="BO19" s="91"/>
+      <c r="BP19" s="92"/>
+      <c r="BQ19" s="93"/>
+      <c r="BR19" s="94"/>
+      <c r="BS19" s="94"/>
+      <c r="BT19" s="94"/>
+      <c r="BU19" s="94"/>
+      <c r="BV19" s="94"/>
+      <c r="BW19" s="94"/>
+      <c r="BX19" s="94"/>
+      <c r="BY19" s="94"/>
+      <c r="BZ19" s="94"/>
+      <c r="CA19" s="94"/>
+      <c r="CB19" s="94"/>
+      <c r="CC19" s="94"/>
+      <c r="CD19" s="94"/>
+      <c r="CE19" s="94"/>
+      <c r="CF19" s="94"/>
+      <c r="CG19" s="94"/>
+      <c r="CH19" s="94"/>
+      <c r="CI19" s="95"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="67"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
-      <c r="BC19" s="67"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="67"/>
-      <c r="BG19" s="67"/>
-      <c r="BH19" s="67"/>
-      <c r="BI19" s="67"/>
-      <c r="BJ19" s="67"/>
-      <c r="BK19" s="67"/>
-      <c r="BL19" s="67"/>
-      <c r="BM19" s="67"/>
-      <c r="BN19" s="67"/>
-      <c r="BO19" s="67"/>
-      <c r="BP19" s="68"/>
-      <c r="BQ19" s="69"/>
-      <c r="BR19" s="70"/>
-      <c r="BS19" s="70"/>
-      <c r="BT19" s="70"/>
-      <c r="BU19" s="70"/>
-      <c r="BV19" s="70"/>
-      <c r="BW19" s="70"/>
-      <c r="BX19" s="70"/>
-      <c r="BY19" s="70"/>
-      <c r="BZ19" s="70"/>
-      <c r="CA19" s="70"/>
-      <c r="CB19" s="70"/>
-      <c r="CC19" s="70"/>
-      <c r="CD19" s="70"/>
-      <c r="CE19" s="70"/>
-      <c r="CF19" s="70"/>
-      <c r="CG19" s="70"/>
-      <c r="CH19" s="70"/>
-      <c r="CI19" s="71"/>
+    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="72"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
+      <c r="BK20" s="73"/>
+      <c r="BL20" s="73"/>
+      <c r="BM20" s="73"/>
+      <c r="BN20" s="73"/>
+      <c r="BO20" s="73"/>
+      <c r="BP20" s="74"/>
+      <c r="BQ20" s="75"/>
+      <c r="BR20" s="76"/>
+      <c r="BS20" s="76"/>
+      <c r="BT20" s="76"/>
+      <c r="BU20" s="76"/>
+      <c r="BV20" s="76"/>
+      <c r="BW20" s="76"/>
+      <c r="BX20" s="76"/>
+      <c r="BY20" s="76"/>
+      <c r="BZ20" s="76"/>
+      <c r="CA20" s="76"/>
+      <c r="CB20" s="76"/>
+      <c r="CC20" s="76"/>
+      <c r="CD20" s="76"/>
+      <c r="CE20" s="76"/>
+      <c r="CF20" s="76"/>
+      <c r="CG20" s="76"/>
+      <c r="CH20" s="76"/>
+      <c r="CI20" s="77"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53"/>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="53"/>
-      <c r="BM20" s="53"/>
-      <c r="BN20" s="53"/>
-      <c r="BO20" s="53"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="55"/>
-      <c r="BR20" s="56"/>
-      <c r="BS20" s="56"/>
-      <c r="BT20" s="56"/>
-      <c r="BU20" s="56"/>
-      <c r="BV20" s="56"/>
-      <c r="BW20" s="56"/>
-      <c r="BX20" s="56"/>
-      <c r="BY20" s="56"/>
-      <c r="BZ20" s="56"/>
-      <c r="CA20" s="56"/>
-      <c r="CB20" s="56"/>
-      <c r="CC20" s="56"/>
-      <c r="CD20" s="56"/>
-      <c r="CE20" s="56"/>
-      <c r="CF20" s="56"/>
-      <c r="CG20" s="56"/>
-      <c r="CH20" s="56"/>
-      <c r="CI20" s="57"/>
-    </row>
-    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="36"/>
-      <c r="AZ21" s="36"/>
-      <c r="BA21" s="36"/>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="36"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
-      <c r="BJ21" s="36"/>
-      <c r="BK21" s="36"/>
-      <c r="BL21" s="36"/>
-      <c r="BM21" s="36"/>
-      <c r="BN21" s="36"/>
-      <c r="BO21" s="36"/>
-      <c r="BP21" s="37"/>
-      <c r="BQ21" s="38"/>
-      <c r="BR21" s="39"/>
-      <c r="BS21" s="39"/>
-      <c r="BT21" s="39"/>
-      <c r="BU21" s="39"/>
-      <c r="BV21" s="39"/>
-      <c r="BW21" s="39"/>
-      <c r="BX21" s="39"/>
-      <c r="BY21" s="39"/>
-      <c r="BZ21" s="39"/>
-      <c r="CA21" s="39"/>
-      <c r="CB21" s="39"/>
-      <c r="CC21" s="39"/>
-      <c r="CD21" s="39"/>
-      <c r="CE21" s="39"/>
-      <c r="CF21" s="39"/>
-      <c r="CG21" s="39"/>
-      <c r="CH21" s="39"/>
-      <c r="CI21" s="40"/>
+    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="100"/>
+      <c r="AN21" s="100"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="100"/>
+      <c r="AQ21" s="100"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="99"/>
+      <c r="AV21" s="100"/>
+      <c r="AW21" s="100"/>
+      <c r="AX21" s="100"/>
+      <c r="AY21" s="100"/>
+      <c r="AZ21" s="100"/>
+      <c r="BA21" s="100"/>
+      <c r="BB21" s="100"/>
+      <c r="BC21" s="100"/>
+      <c r="BD21" s="101"/>
+      <c r="BE21" s="99"/>
+      <c r="BF21" s="100"/>
+      <c r="BG21" s="100"/>
+      <c r="BH21" s="100"/>
+      <c r="BI21" s="100"/>
+      <c r="BJ21" s="100"/>
+      <c r="BK21" s="100"/>
+      <c r="BL21" s="100"/>
+      <c r="BM21" s="100"/>
+      <c r="BN21" s="100"/>
+      <c r="BO21" s="100"/>
+      <c r="BP21" s="101"/>
+      <c r="BQ21" s="102"/>
+      <c r="BR21" s="103"/>
+      <c r="BS21" s="103"/>
+      <c r="BT21" s="103"/>
+      <c r="BU21" s="103"/>
+      <c r="BV21" s="103"/>
+      <c r="BW21" s="103"/>
+      <c r="BX21" s="103"/>
+      <c r="BY21" s="103"/>
+      <c r="BZ21" s="103"/>
+      <c r="CA21" s="103"/>
+      <c r="CB21" s="103"/>
+      <c r="CC21" s="103"/>
+      <c r="CD21" s="103"/>
+      <c r="CE21" s="103"/>
+      <c r="CF21" s="103"/>
+      <c r="CG21" s="103"/>
+      <c r="CH21" s="103"/>
+      <c r="CI21" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11492,141 +11312,6 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験画面.xlsx
+++ b/画面設計書/画面設計書_3_1_試験画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B3CA97-C314-4FA9-8389-B133536890A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4465CCB-09E0-441F-823B-21C4562B00F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="0" windowWidth="16548" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>システム名</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>入出力項目</t>
   </si>
   <si>
@@ -135,10 +131,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コンテンツ部</t>
@@ -178,13 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>解答チェック</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ラジオボタン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -192,28 +177,6 @@
     <t>採点</t>
     <rPh sb="0" eb="2">
       <t>サイテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>採点ボタン押すと採点結果画面に移す</t>
-    <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -256,25 +219,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題の解答と考えられる解答をチェック(全部チェックしないといけない）</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゼンブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>question</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -302,11 +246,90 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>answer</t>
+    <t>問題文</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全部の問題の解答を選択したいとエラーポップアップ表示</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択肢</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>question_answer</t>
+    <t>正解だと思う項目を選択</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_text</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>question_selects</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダー部</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -374,7 +397,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +432,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -788,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -830,6 +859,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,23 +919,221 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,221 +1162,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1224,16 +1295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1248,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1889760" y="1021080"/>
-          <a:ext cx="4503420" cy="5524500"/>
+          <a:off x="1866900" y="998220"/>
+          <a:ext cx="4503420" cy="6454140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,21 +1350,21 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>数学　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>受験</a:t>
+            <a:t>数学　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -1301,7 +1372,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID:xxxxxx</a:t>
+            <a:t>xxxxxx</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
@@ -1332,15 +1403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1355,7 +1426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2301240" y="2118360"/>
+          <a:off x="2240280" y="2743200"/>
           <a:ext cx="3901440" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1480,16 +1551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1504,7 +1575,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="2537460"/>
+          <a:off x="2331720" y="3055620"/>
           <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1549,15 +1620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1572,7 +1643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025140" y="5852160"/>
+          <a:off x="3070860" y="6385560"/>
           <a:ext cx="1897380" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1620,15 +1691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1643,7 +1714,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="5128260"/>
+          <a:off x="3916680" y="5676900"/>
           <a:ext cx="83820" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1680,15 +1751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1703,7 +1774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="5334000"/>
+          <a:off x="3909060" y="5882640"/>
           <a:ext cx="83820" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1740,15 +1811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1763,8 +1834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3832860" y="5547360"/>
-          <a:ext cx="83820" cy="91440"/>
+          <a:off x="3878580" y="6096000"/>
+          <a:ext cx="121920" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1799,16 +1870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1823,143 +1894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2499360" y="2903220"/>
-          <a:ext cx="121920" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA49662-4E92-4A84-8E35-96D8A9EB4B00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2506980" y="3086100"/>
-          <a:ext cx="121920" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="楕円 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD86B28-19F3-4EC9-BE3D-246533494AD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2491740" y="2727960"/>
+          <a:off x="2316480" y="3482340"/>
           <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2004,15 +1939,151 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA49662-4E92-4A84-8E35-96D8A9EB4B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="3695700"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD86B28-19F3-4EC9-BE3D-246533494AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="3261360"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2027,7 +2098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2301240" y="3627120"/>
+          <a:off x="2247900" y="4213860"/>
           <a:ext cx="3901440" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2160,16 +2231,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2184,7 +2255,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="4396740"/>
+          <a:off x="2308860" y="4953000"/>
           <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2228,16 +2299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2252,7 +2323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="4221480"/>
+          <a:off x="2316480" y="4785360"/>
           <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2296,16 +2367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2320,7 +2391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="4038600"/>
+          <a:off x="2316480" y="4594860"/>
           <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2364,16 +2435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2388,7 +2459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="4572000"/>
+          <a:off x="2308860" y="5158740"/>
           <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2425,6 +2496,145 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332CE998-BAC7-47F9-94D3-A0B9CE3B1BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="990600"/>
+          <a:ext cx="4533900" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>Sylph Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>試験</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71D16CA-0284-F098-E2AD-F3ABA0BF34BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="1310640"/>
+          <a:ext cx="815340" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2698,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG15" sqref="BG15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK8" sqref="BK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2712,104 +2922,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
-        <v>35</v>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
-        <v>30</v>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3750,104 +3960,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>26</v>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>24</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="26">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4875,196 +5085,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="32">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -7268,14 +7478,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7290,6 +7492,14 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7306,8 +7516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ13" sqref="BQ13:CI13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ15" sqref="BQ15:CI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7320,104 +7530,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
-        <v>35</v>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
-        <v>30</v>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8358,104 +8568,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>26</v>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>24</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="26">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9483,1813 +9693,1691 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="32">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
-        <v>27</v>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>28</v>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
-        <v>27</v>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20" t="s">
+        <v>25</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="107"/>
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="107"/>
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="107"/>
+      <c r="BJ6" s="107"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="107"/>
+      <c r="BM6" s="107"/>
+      <c r="BN6" s="107"/>
+      <c r="BO6" s="107"/>
+      <c r="BP6" s="107"/>
+      <c r="BQ6" s="107"/>
+      <c r="BR6" s="107"/>
+      <c r="BS6" s="107"/>
+      <c r="BT6" s="107"/>
+      <c r="BU6" s="107"/>
+      <c r="BV6" s="107"/>
+      <c r="BW6" s="107"/>
+      <c r="BX6" s="107"/>
+      <c r="BY6" s="107"/>
+      <c r="BZ6" s="107"/>
+      <c r="CA6" s="107"/>
+      <c r="CB6" s="107"/>
+      <c r="CC6" s="107"/>
+      <c r="CD6" s="107"/>
+      <c r="CE6" s="107"/>
+      <c r="CF6" s="107"/>
+      <c r="CG6" s="107"/>
+      <c r="CH6" s="107"/>
+      <c r="CI6" s="107"/>
+    </row>
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="35"/>
-      <c r="CG6" s="35"/>
-      <c r="CH6" s="35"/>
-      <c r="CI6" s="35"/>
-    </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="37" t="s">
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="37" t="s">
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="37" t="s">
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="37" t="s">
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="110"/>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="110"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="40" t="s">
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="112"/>
+      <c r="BC7" s="112"/>
+      <c r="BD7" s="112"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="112"/>
+      <c r="BJ7" s="112"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="112"/>
+      <c r="BM7" s="112"/>
+      <c r="BN7" s="112"/>
+      <c r="BO7" s="112"/>
+      <c r="BP7" s="112"/>
+      <c r="BQ7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
-      <c r="BQ7" s="41" t="s">
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="113"/>
+      <c r="BU7" s="113"/>
+      <c r="BV7" s="113"/>
+      <c r="BW7" s="113"/>
+      <c r="BX7" s="113"/>
+      <c r="BY7" s="113"/>
+      <c r="BZ7" s="113"/>
+      <c r="CA7" s="113"/>
+      <c r="CB7" s="113"/>
+      <c r="CC7" s="113"/>
+      <c r="CD7" s="113"/>
+      <c r="CE7" s="113"/>
+      <c r="CF7" s="113"/>
+      <c r="CG7" s="113"/>
+      <c r="CH7" s="113"/>
+      <c r="CI7" s="113"/>
+    </row>
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="87">
+        <f t="shared" ref="B8:B9" si="0">ROW(B8)-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="41"/>
-      <c r="CF7" s="41"/>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="41"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="100"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="97"/>
+      <c r="BM8" s="97"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="97"/>
+      <c r="BQ8" s="98"/>
+      <c r="BR8" s="98"/>
+      <c r="BS8" s="98"/>
+      <c r="BT8" s="98"/>
+      <c r="BU8" s="98"/>
+      <c r="BV8" s="98"/>
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="98"/>
+      <c r="CA8" s="98"/>
+      <c r="CB8" s="98"/>
+      <c r="CC8" s="98"/>
+      <c r="CD8" s="98"/>
+      <c r="CE8" s="98"/>
+      <c r="CF8" s="98"/>
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="46">
-        <f t="shared" ref="B8:B10" si="0">ROW(B8)-7</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="45"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="45"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="45"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="45"/>
-      <c r="BY8" s="45"/>
-      <c r="BZ8" s="45"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="45"/>
-      <c r="CC8" s="45"/>
-      <c r="CD8" s="45"/>
-      <c r="CE8" s="45"/>
-      <c r="CF8" s="45"/>
-      <c r="CG8" s="45"/>
-      <c r="CH8" s="45"/>
-      <c r="CI8" s="45"/>
-    </row>
-    <row r="9" spans="1:1024" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46">
+    <row r="9" spans="1:1024" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="87">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="57" t="s">
-        <v>31</v>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="81" t="s">
+        <v>42</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="62" t="s">
-        <v>24</v>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="90" t="s">
+        <v>22</v>
       </c>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="57" t="s">
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF9" s="95"/>
+      <c r="BG9" s="95"/>
+      <c r="BH9" s="95"/>
+      <c r="BI9" s="95"/>
+      <c r="BJ9" s="95"/>
+      <c r="BK9" s="95"/>
+      <c r="BL9" s="95"/>
+      <c r="BM9" s="95"/>
+      <c r="BN9" s="95"/>
+      <c r="BO9" s="95"/>
+      <c r="BP9" s="95"/>
+      <c r="BQ9" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR9" s="96"/>
+      <c r="BS9" s="96"/>
+      <c r="BT9" s="96"/>
+      <c r="BU9" s="96"/>
+      <c r="BV9" s="96"/>
+      <c r="BW9" s="96"/>
+      <c r="BX9" s="96"/>
+      <c r="BY9" s="96"/>
+      <c r="BZ9" s="96"/>
+      <c r="CA9" s="96"/>
+      <c r="CB9" s="96"/>
+      <c r="CC9" s="96"/>
+      <c r="CD9" s="96"/>
+      <c r="CE9" s="96"/>
+      <c r="CF9" s="96"/>
+      <c r="CG9" s="96"/>
+      <c r="CH9" s="96"/>
+      <c r="CI9" s="96"/>
+    </row>
+    <row r="10" spans="1:1024" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="87">
+        <v>3</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="119"/>
+      <c r="AW10" s="119"/>
+      <c r="AX10" s="119"/>
+      <c r="AY10" s="119"/>
+      <c r="AZ10" s="119"/>
+      <c r="BA10" s="119"/>
+      <c r="BB10" s="119"/>
+      <c r="BC10" s="119"/>
+      <c r="BD10" s="120"/>
+      <c r="BE10" s="116"/>
+      <c r="BF10" s="119"/>
+      <c r="BG10" s="119"/>
+      <c r="BH10" s="119"/>
+      <c r="BI10" s="119"/>
+      <c r="BJ10" s="119"/>
+      <c r="BK10" s="119"/>
+      <c r="BL10" s="119"/>
+      <c r="BM10" s="119"/>
+      <c r="BN10" s="119"/>
+      <c r="BO10" s="119"/>
+      <c r="BP10" s="120"/>
+      <c r="BQ10" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR10" s="85"/>
+      <c r="BS10" s="85"/>
+      <c r="BT10" s="85"/>
+      <c r="BU10" s="85"/>
+      <c r="BV10" s="85"/>
+      <c r="BW10" s="85"/>
+      <c r="BX10" s="85"/>
+      <c r="BY10" s="85"/>
+      <c r="BZ10" s="85"/>
+      <c r="CA10" s="85"/>
+      <c r="CB10" s="85"/>
+      <c r="CC10" s="85"/>
+      <c r="CD10" s="85"/>
+      <c r="CE10" s="85"/>
+      <c r="CF10" s="85"/>
+      <c r="CG10" s="85"/>
+      <c r="CH10" s="85"/>
+      <c r="CI10" s="86"/>
+    </row>
+    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="87">
+        <v>4</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="57" t="s">
-        <v>13</v>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="81" t="s">
+        <v>36</v>
       </c>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="58"/>
-      <c r="AY9" s="58"/>
-      <c r="AZ9" s="58"/>
-      <c r="BA9" s="58"/>
-      <c r="BB9" s="58"/>
-      <c r="BC9" s="58"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="60" t="s">
-        <v>22</v>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="82"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="83"/>
+      <c r="BE11" s="81" t="s">
+        <v>37</v>
       </c>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
-      <c r="BM9" s="60"/>
-      <c r="BN9" s="60"/>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="60"/>
-      <c r="BQ9" s="61" t="s">
+      <c r="BF11" s="82"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="82"/>
+      <c r="BI11" s="82"/>
+      <c r="BJ11" s="82"/>
+      <c r="BK11" s="82"/>
+      <c r="BL11" s="82"/>
+      <c r="BM11" s="82"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="82"/>
+      <c r="BP11" s="83"/>
+      <c r="BQ11" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR11" s="85"/>
+      <c r="BS11" s="85"/>
+      <c r="BT11" s="85"/>
+      <c r="BU11" s="85"/>
+      <c r="BV11" s="85"/>
+      <c r="BW11" s="85"/>
+      <c r="BX11" s="85"/>
+      <c r="BY11" s="85"/>
+      <c r="BZ11" s="85"/>
+      <c r="CA11" s="85"/>
+      <c r="CB11" s="85"/>
+      <c r="CC11" s="85"/>
+      <c r="CD11" s="85"/>
+      <c r="CE11" s="85"/>
+      <c r="CF11" s="85"/>
+      <c r="CG11" s="85"/>
+      <c r="CH11" s="85"/>
+      <c r="CI11" s="86"/>
+    </row>
+    <row r="12" spans="1:1024" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="87">
+        <v>5</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="117"/>
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="117"/>
+      <c r="BA12" s="117"/>
+      <c r="BB12" s="117"/>
+      <c r="BC12" s="117"/>
+      <c r="BD12" s="118"/>
+      <c r="BE12" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF12" s="117"/>
+      <c r="BG12" s="117"/>
+      <c r="BH12" s="117"/>
+      <c r="BI12" s="117"/>
+      <c r="BJ12" s="117"/>
+      <c r="BK12" s="117"/>
+      <c r="BL12" s="117"/>
+      <c r="BM12" s="117"/>
+      <c r="BN12" s="117"/>
+      <c r="BO12" s="117"/>
+      <c r="BP12" s="118"/>
+      <c r="BQ12" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR12" s="85"/>
+      <c r="BS12" s="85"/>
+      <c r="BT12" s="85"/>
+      <c r="BU12" s="85"/>
+      <c r="BV12" s="85"/>
+      <c r="BW12" s="85"/>
+      <c r="BX12" s="85"/>
+      <c r="BY12" s="85"/>
+      <c r="BZ12" s="85"/>
+      <c r="CA12" s="85"/>
+      <c r="CB12" s="85"/>
+      <c r="CC12" s="85"/>
+      <c r="CD12" s="85"/>
+      <c r="CE12" s="85"/>
+      <c r="CF12" s="85"/>
+      <c r="CG12" s="85"/>
+      <c r="CH12" s="85"/>
+      <c r="CI12" s="86"/>
+    </row>
+    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="87">
+        <v>6</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="BR9" s="61"/>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="61"/>
-      <c r="BU9" s="61"/>
-      <c r="BV9" s="61"/>
-      <c r="BW9" s="61"/>
-      <c r="BX9" s="61"/>
-      <c r="BY9" s="61"/>
-      <c r="BZ9" s="61"/>
-      <c r="CA9" s="61"/>
-      <c r="CB9" s="61"/>
-      <c r="CC9" s="61"/>
-      <c r="CD9" s="61"/>
-      <c r="CE9" s="61"/>
-      <c r="CF9" s="61"/>
-      <c r="CG9" s="61"/>
-      <c r="CH9" s="61"/>
-      <c r="CI9" s="61"/>
-    </row>
-    <row r="10" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="46">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="58"/>
-      <c r="AY10" s="58"/>
-      <c r="AZ10" s="58"/>
-      <c r="BA10" s="58"/>
-      <c r="BB10" s="58"/>
-      <c r="BC10" s="58"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF10" s="60"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="60"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="60"/>
-      <c r="BL10" s="60"/>
-      <c r="BM10" s="60"/>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="60"/>
-      <c r="BP10" s="60"/>
-      <c r="BQ10" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="BR10" s="61"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="61"/>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="61"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="61"/>
-      <c r="CD10" s="61"/>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="61"/>
-      <c r="CG10" s="61"/>
-      <c r="CH10" s="61"/>
-      <c r="CI10" s="61"/>
-    </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="46">
-        <v>4</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="57" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="58"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="58"/>
-      <c r="BK11" s="58"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="58"/>
-      <c r="BN11" s="58"/>
-      <c r="BO11" s="58"/>
-      <c r="BP11" s="59"/>
-      <c r="BQ11" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR11" s="70"/>
-      <c r="BS11" s="70"/>
-      <c r="BT11" s="70"/>
-      <c r="BU11" s="70"/>
-      <c r="BV11" s="70"/>
-      <c r="BW11" s="70"/>
-      <c r="BX11" s="70"/>
-      <c r="BY11" s="70"/>
-      <c r="BZ11" s="70"/>
-      <c r="CA11" s="70"/>
-      <c r="CB11" s="70"/>
-      <c r="CC11" s="70"/>
-      <c r="CD11" s="70"/>
-      <c r="CE11" s="70"/>
-      <c r="CF11" s="70"/>
-      <c r="CG11" s="70"/>
-      <c r="CH11" s="70"/>
-      <c r="CI11" s="71"/>
-    </row>
-    <row r="12" spans="1:1024" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46">
-        <v>5</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="67" t="s">
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="83"/>
+      <c r="BE13" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
-      <c r="BP12" s="59"/>
-      <c r="BQ12" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR12" s="70"/>
-      <c r="BS12" s="70"/>
-      <c r="BT12" s="70"/>
-      <c r="BU12" s="70"/>
-      <c r="BV12" s="70"/>
-      <c r="BW12" s="70"/>
-      <c r="BX12" s="70"/>
-      <c r="BY12" s="70"/>
-      <c r="BZ12" s="70"/>
-      <c r="CA12" s="70"/>
-      <c r="CB12" s="70"/>
-      <c r="CC12" s="70"/>
-      <c r="CD12" s="70"/>
-      <c r="CE12" s="70"/>
-      <c r="CF12" s="70"/>
-      <c r="CG12" s="70"/>
-      <c r="CH12" s="70"/>
-      <c r="CI12" s="71"/>
-    </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="57"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
-      <c r="BP13" s="59"/>
-      <c r="BQ13" s="69"/>
-      <c r="BR13" s="70"/>
-      <c r="BS13" s="70"/>
-      <c r="BT13" s="70"/>
-      <c r="BU13" s="70"/>
-      <c r="BV13" s="70"/>
-      <c r="BW13" s="70"/>
-      <c r="BX13" s="70"/>
-      <c r="BY13" s="70"/>
-      <c r="BZ13" s="70"/>
-      <c r="CA13" s="70"/>
-      <c r="CB13" s="70"/>
-      <c r="CC13" s="70"/>
-      <c r="CD13" s="70"/>
-      <c r="CE13" s="70"/>
-      <c r="CF13" s="70"/>
-      <c r="CG13" s="70"/>
-      <c r="CH13" s="70"/>
-      <c r="CI13" s="71"/>
+      <c r="BF13" s="82"/>
+      <c r="BG13" s="82"/>
+      <c r="BH13" s="82"/>
+      <c r="BI13" s="82"/>
+      <c r="BJ13" s="82"/>
+      <c r="BK13" s="82"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="82"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="82"/>
+      <c r="BP13" s="83"/>
+      <c r="BQ13" s="84"/>
+      <c r="BR13" s="85"/>
+      <c r="BS13" s="85"/>
+      <c r="BT13" s="85"/>
+      <c r="BU13" s="85"/>
+      <c r="BV13" s="85"/>
+      <c r="BW13" s="85"/>
+      <c r="BX13" s="85"/>
+      <c r="BY13" s="85"/>
+      <c r="BZ13" s="85"/>
+      <c r="CA13" s="85"/>
+      <c r="CB13" s="85"/>
+      <c r="CC13" s="85"/>
+      <c r="CD13" s="85"/>
+      <c r="CE13" s="85"/>
+      <c r="CF13" s="85"/>
+      <c r="CG13" s="85"/>
+      <c r="CH13" s="85"/>
+      <c r="CI13" s="86"/>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="57"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="69"/>
-      <c r="BR14" s="70"/>
-      <c r="BS14" s="70"/>
-      <c r="BT14" s="70"/>
-      <c r="BU14" s="70"/>
-      <c r="BV14" s="70"/>
-      <c r="BW14" s="70"/>
-      <c r="BX14" s="70"/>
-      <c r="BY14" s="70"/>
-      <c r="BZ14" s="70"/>
-      <c r="CA14" s="70"/>
-      <c r="CB14" s="70"/>
-      <c r="CC14" s="70"/>
-      <c r="CD14" s="70"/>
-      <c r="CE14" s="70"/>
-      <c r="CF14" s="70"/>
-      <c r="CG14" s="70"/>
-      <c r="CH14" s="70"/>
-      <c r="CI14" s="71"/>
+      <c r="B14" s="87">
+        <v>7</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="122"/>
+      <c r="AO14" s="122"/>
+      <c r="AP14" s="122"/>
+      <c r="AQ14" s="122"/>
+      <c r="AR14" s="122"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="122"/>
+      <c r="AX14" s="122"/>
+      <c r="AY14" s="122"/>
+      <c r="AZ14" s="122"/>
+      <c r="BA14" s="122"/>
+      <c r="BB14" s="122"/>
+      <c r="BC14" s="122"/>
+      <c r="BD14" s="123"/>
+      <c r="BE14" s="121"/>
+      <c r="BF14" s="122"/>
+      <c r="BG14" s="122"/>
+      <c r="BH14" s="122"/>
+      <c r="BI14" s="122"/>
+      <c r="BJ14" s="122"/>
+      <c r="BK14" s="122"/>
+      <c r="BL14" s="122"/>
+      <c r="BM14" s="122"/>
+      <c r="BN14" s="122"/>
+      <c r="BO14" s="122"/>
+      <c r="BP14" s="123"/>
+      <c r="BQ14" s="127"/>
+      <c r="BR14" s="128"/>
+      <c r="BS14" s="128"/>
+      <c r="BT14" s="128"/>
+      <c r="BU14" s="128"/>
+      <c r="BV14" s="128"/>
+      <c r="BW14" s="128"/>
+      <c r="BX14" s="128"/>
+      <c r="BY14" s="128"/>
+      <c r="BZ14" s="128"/>
+      <c r="CA14" s="128"/>
+      <c r="CB14" s="128"/>
+      <c r="CC14" s="128"/>
+      <c r="CD14" s="128"/>
+      <c r="CE14" s="128"/>
+      <c r="CF14" s="128"/>
+      <c r="CG14" s="128"/>
+      <c r="CH14" s="128"/>
+      <c r="CI14" s="129"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="58"/>
-      <c r="BB15" s="58"/>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="58"/>
-      <c r="BI15" s="58"/>
-      <c r="BJ15" s="58"/>
-      <c r="BK15" s="58"/>
-      <c r="BL15" s="58"/>
-      <c r="BM15" s="58"/>
-      <c r="BN15" s="58"/>
-      <c r="BO15" s="58"/>
-      <c r="BP15" s="59"/>
-      <c r="BQ15" s="69"/>
-      <c r="BR15" s="70"/>
-      <c r="BS15" s="70"/>
-      <c r="BT15" s="70"/>
-      <c r="BU15" s="70"/>
-      <c r="BV15" s="70"/>
-      <c r="BW15" s="70"/>
-      <c r="BX15" s="70"/>
-      <c r="BY15" s="70"/>
-      <c r="BZ15" s="70"/>
-      <c r="CA15" s="70"/>
-      <c r="CB15" s="70"/>
-      <c r="CC15" s="70"/>
-      <c r="CD15" s="70"/>
-      <c r="CE15" s="70"/>
-      <c r="CF15" s="70"/>
-      <c r="CG15" s="70"/>
-      <c r="CH15" s="70"/>
-      <c r="CI15" s="71"/>
+      <c r="B15" s="87">
+        <v>8</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="83"/>
+      <c r="BQ15" s="84"/>
+      <c r="BR15" s="85"/>
+      <c r="BS15" s="85"/>
+      <c r="BT15" s="85"/>
+      <c r="BU15" s="85"/>
+      <c r="BV15" s="85"/>
+      <c r="BW15" s="85"/>
+      <c r="BX15" s="85"/>
+      <c r="BY15" s="85"/>
+      <c r="BZ15" s="85"/>
+      <c r="CA15" s="85"/>
+      <c r="CB15" s="85"/>
+      <c r="CC15" s="85"/>
+      <c r="CD15" s="85"/>
+      <c r="CE15" s="85"/>
+      <c r="CF15" s="85"/>
+      <c r="CG15" s="85"/>
+      <c r="CH15" s="85"/>
+      <c r="CI15" s="86"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="74"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-      <c r="BO16" s="73"/>
-      <c r="BP16" s="74"/>
-      <c r="BQ16" s="75"/>
-      <c r="BR16" s="76"/>
-      <c r="BS16" s="76"/>
-      <c r="BT16" s="76"/>
-      <c r="BU16" s="76"/>
-      <c r="BV16" s="76"/>
-      <c r="BW16" s="76"/>
-      <c r="BX16" s="76"/>
-      <c r="BY16" s="76"/>
-      <c r="BZ16" s="76"/>
-      <c r="CA16" s="76"/>
-      <c r="CB16" s="76"/>
-      <c r="CC16" s="76"/>
-      <c r="CD16" s="76"/>
-      <c r="CE16" s="76"/>
-      <c r="CF16" s="76"/>
-      <c r="CG16" s="76"/>
-      <c r="CH16" s="76"/>
-      <c r="CI16" s="77"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BK16" s="53"/>
+      <c r="BL16" s="53"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="54"/>
+      <c r="BQ16" s="55"/>
+      <c r="BR16" s="56"/>
+      <c r="BS16" s="56"/>
+      <c r="BT16" s="56"/>
+      <c r="BU16" s="56"/>
+      <c r="BV16" s="56"/>
+      <c r="BW16" s="56"/>
+      <c r="BX16" s="56"/>
+      <c r="BY16" s="56"/>
+      <c r="BZ16" s="56"/>
+      <c r="CA16" s="56"/>
+      <c r="CB16" s="56"/>
+      <c r="CC16" s="56"/>
+      <c r="CD16" s="56"/>
+      <c r="CE16" s="56"/>
+      <c r="CF16" s="56"/>
+      <c r="CG16" s="56"/>
+      <c r="CH16" s="56"/>
+      <c r="CI16" s="57"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="74"/>
-      <c r="BE17" s="72"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
-      <c r="BL17" s="73"/>
-      <c r="BM17" s="73"/>
-      <c r="BN17" s="73"/>
-      <c r="BO17" s="73"/>
-      <c r="BP17" s="74"/>
-      <c r="BQ17" s="84"/>
-      <c r="BR17" s="85"/>
-      <c r="BS17" s="85"/>
-      <c r="BT17" s="85"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="85"/>
-      <c r="BW17" s="85"/>
-      <c r="BX17" s="85"/>
-      <c r="BY17" s="85"/>
-      <c r="BZ17" s="85"/>
-      <c r="CA17" s="85"/>
-      <c r="CB17" s="85"/>
-      <c r="CC17" s="85"/>
-      <c r="CD17" s="85"/>
-      <c r="CE17" s="85"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="85"/>
-      <c r="CH17" s="85"/>
-      <c r="CI17" s="86"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="54"/>
+      <c r="BQ17" s="78"/>
+      <c r="BR17" s="79"/>
+      <c r="BS17" s="79"/>
+      <c r="BT17" s="79"/>
+      <c r="BU17" s="79"/>
+      <c r="BV17" s="79"/>
+      <c r="BW17" s="79"/>
+      <c r="BX17" s="79"/>
+      <c r="BY17" s="79"/>
+      <c r="BZ17" s="79"/>
+      <c r="CA17" s="79"/>
+      <c r="CB17" s="79"/>
+      <c r="CC17" s="79"/>
+      <c r="CD17" s="79"/>
+      <c r="CE17" s="79"/>
+      <c r="CF17" s="79"/>
+      <c r="CG17" s="79"/>
+      <c r="CH17" s="79"/>
+      <c r="CI17" s="80"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="91"/>
-      <c r="AD18" s="91"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="83"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="72"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="73"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-      <c r="BO18" s="73"/>
-      <c r="BP18" s="74"/>
-      <c r="BQ18" s="87"/>
-      <c r="BR18" s="88"/>
-      <c r="BS18" s="88"/>
-      <c r="BT18" s="88"/>
-      <c r="BU18" s="88"/>
-      <c r="BV18" s="88"/>
-      <c r="BW18" s="88"/>
-      <c r="BX18" s="88"/>
-      <c r="BY18" s="88"/>
-      <c r="BZ18" s="88"/>
-      <c r="CA18" s="88"/>
-      <c r="CB18" s="88"/>
-      <c r="CC18" s="88"/>
-      <c r="CD18" s="88"/>
-      <c r="CE18" s="88"/>
-      <c r="CF18" s="88"/>
-      <c r="CG18" s="88"/>
-      <c r="CH18" s="88"/>
-      <c r="CI18" s="89"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="53"/>
+      <c r="BG18" s="53"/>
+      <c r="BH18" s="53"/>
+      <c r="BI18" s="53"/>
+      <c r="BJ18" s="53"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="53"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="53"/>
+      <c r="BO18" s="53"/>
+      <c r="BP18" s="54"/>
+      <c r="BQ18" s="75"/>
+      <c r="BR18" s="76"/>
+      <c r="BS18" s="76"/>
+      <c r="BT18" s="76"/>
+      <c r="BU18" s="76"/>
+      <c r="BV18" s="76"/>
+      <c r="BW18" s="76"/>
+      <c r="BX18" s="76"/>
+      <c r="BY18" s="76"/>
+      <c r="BZ18" s="76"/>
+      <c r="CA18" s="76"/>
+      <c r="CB18" s="76"/>
+      <c r="CC18" s="76"/>
+      <c r="CD18" s="76"/>
+      <c r="CE18" s="76"/>
+      <c r="CF18" s="76"/>
+      <c r="CG18" s="76"/>
+      <c r="CH18" s="76"/>
+      <c r="CI18" s="77"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="92"/>
-      <c r="BE19" s="90"/>
-      <c r="BF19" s="91"/>
-      <c r="BG19" s="91"/>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
-      <c r="BJ19" s="91"/>
-      <c r="BK19" s="91"/>
-      <c r="BL19" s="91"/>
-      <c r="BM19" s="91"/>
-      <c r="BN19" s="91"/>
-      <c r="BO19" s="91"/>
-      <c r="BP19" s="92"/>
-      <c r="BQ19" s="93"/>
-      <c r="BR19" s="94"/>
-      <c r="BS19" s="94"/>
-      <c r="BT19" s="94"/>
-      <c r="BU19" s="94"/>
-      <c r="BV19" s="94"/>
-      <c r="BW19" s="94"/>
-      <c r="BX19" s="94"/>
-      <c r="BY19" s="94"/>
-      <c r="BZ19" s="94"/>
-      <c r="CA19" s="94"/>
-      <c r="CB19" s="94"/>
-      <c r="CC19" s="94"/>
-      <c r="CD19" s="94"/>
-      <c r="CE19" s="94"/>
-      <c r="CF19" s="94"/>
-      <c r="CG19" s="94"/>
-      <c r="CH19" s="94"/>
-      <c r="CI19" s="95"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="69"/>
+      <c r="BR19" s="70"/>
+      <c r="BS19" s="70"/>
+      <c r="BT19" s="70"/>
+      <c r="BU19" s="70"/>
+      <c r="BV19" s="70"/>
+      <c r="BW19" s="70"/>
+      <c r="BX19" s="70"/>
+      <c r="BY19" s="70"/>
+      <c r="BZ19" s="70"/>
+      <c r="CA19" s="70"/>
+      <c r="CB19" s="70"/>
+      <c r="CC19" s="70"/>
+      <c r="CD19" s="70"/>
+      <c r="CE19" s="70"/>
+      <c r="CF19" s="70"/>
+      <c r="CG19" s="70"/>
+      <c r="CH19" s="70"/>
+      <c r="CI19" s="71"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="74"/>
-      <c r="BE20" s="72"/>
-      <c r="BF20" s="73"/>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="73"/>
-      <c r="BI20" s="73"/>
-      <c r="BJ20" s="73"/>
-      <c r="BK20" s="73"/>
-      <c r="BL20" s="73"/>
-      <c r="BM20" s="73"/>
-      <c r="BN20" s="73"/>
-      <c r="BO20" s="73"/>
-      <c r="BP20" s="74"/>
-      <c r="BQ20" s="75"/>
-      <c r="BR20" s="76"/>
-      <c r="BS20" s="76"/>
-      <c r="BT20" s="76"/>
-      <c r="BU20" s="76"/>
-      <c r="BV20" s="76"/>
-      <c r="BW20" s="76"/>
-      <c r="BX20" s="76"/>
-      <c r="BY20" s="76"/>
-      <c r="BZ20" s="76"/>
-      <c r="CA20" s="76"/>
-      <c r="CB20" s="76"/>
-      <c r="CC20" s="76"/>
-      <c r="CD20" s="76"/>
-      <c r="CE20" s="76"/>
-      <c r="CF20" s="76"/>
-      <c r="CG20" s="76"/>
-      <c r="CH20" s="76"/>
-      <c r="CI20" s="77"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="53"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="53"/>
+      <c r="BM20" s="53"/>
+      <c r="BN20" s="53"/>
+      <c r="BO20" s="53"/>
+      <c r="BP20" s="54"/>
+      <c r="BQ20" s="55"/>
+      <c r="BR20" s="56"/>
+      <c r="BS20" s="56"/>
+      <c r="BT20" s="56"/>
+      <c r="BU20" s="56"/>
+      <c r="BV20" s="56"/>
+      <c r="BW20" s="56"/>
+      <c r="BX20" s="56"/>
+      <c r="BY20" s="56"/>
+      <c r="BZ20" s="56"/>
+      <c r="CA20" s="56"/>
+      <c r="CB20" s="56"/>
+      <c r="CC20" s="56"/>
+      <c r="CD20" s="56"/>
+      <c r="CE20" s="56"/>
+      <c r="CF20" s="56"/>
+      <c r="CG20" s="56"/>
+      <c r="CH20" s="56"/>
+      <c r="CI20" s="57"/>
     </row>
     <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="111"/>
-      <c r="AI21" s="112"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="100"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="115"/>
-      <c r="AU21" s="99"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="101"/>
-      <c r="BE21" s="99"/>
-      <c r="BF21" s="100"/>
-      <c r="BG21" s="100"/>
-      <c r="BH21" s="100"/>
-      <c r="BI21" s="100"/>
-      <c r="BJ21" s="100"/>
-      <c r="BK21" s="100"/>
-      <c r="BL21" s="100"/>
-      <c r="BM21" s="100"/>
-      <c r="BN21" s="100"/>
-      <c r="BO21" s="100"/>
-      <c r="BP21" s="101"/>
-      <c r="BQ21" s="102"/>
-      <c r="BR21" s="103"/>
-      <c r="BS21" s="103"/>
-      <c r="BT21" s="103"/>
-      <c r="BU21" s="103"/>
-      <c r="BV21" s="103"/>
-      <c r="BW21" s="103"/>
-      <c r="BX21" s="103"/>
-      <c r="BY21" s="103"/>
-      <c r="BZ21" s="103"/>
-      <c r="CA21" s="103"/>
-      <c r="CB21" s="103"/>
-      <c r="CC21" s="103"/>
-      <c r="CD21" s="103"/>
-      <c r="CE21" s="103"/>
-      <c r="CF21" s="103"/>
-      <c r="CG21" s="103"/>
-      <c r="CH21" s="103"/>
-      <c r="CI21" s="104"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="35"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="39"/>
+      <c r="BS21" s="39"/>
+      <c r="BT21" s="39"/>
+      <c r="BU21" s="39"/>
+      <c r="BV21" s="39"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="39"/>
+      <c r="BZ21" s="39"/>
+      <c r="CA21" s="39"/>
+      <c r="CB21" s="39"/>
+      <c r="CC21" s="39"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
+      <c r="CF21" s="39"/>
+      <c r="CG21" s="39"/>
+      <c r="CH21" s="39"/>
+      <c r="CI21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11312,6 +11400,141 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験画面.xlsx
+++ b/画面設計書/画面設計書_3_1_試験画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Documents\GitHub\sleepyProject\ドキュメントフォーマット\設計書サンプル\画面設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\Sylph Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CAB571-C929-4766-B7E4-3FDEB3A246BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4465CCB-09E0-441F-823B-21C4562B00F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="0" windowWidth="17088" windowHeight="11628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="0" windowWidth="16548" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>システム名</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>入出力項目</t>
   </si>
   <si>
@@ -137,23 +133,11 @@
     <t>備考</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コンテンツ部</t>
   </si>
   <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ボタン</t>
@@ -186,13 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>解答チェック</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ラジオボタン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -204,48 +181,155 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>採点ボタン押すと採点結果画面に移す</t>
+    <t>Sylph</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>科目</t>
     <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウツ</t>
+      <t>カモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Sylph</t>
+    <t>選択した科目によって表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題の解答と考えられる番号をチェック(全部チェックしないといけない）</t>
+    <t>受験ID</t>
     <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしたIDによって表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_number</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_user</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_Id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題文</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全部の問題の解答を選択したいとエラーポップアップ表示</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="6" eb="8">
       <t>カイトウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>カンガ</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゼンブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択肢</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>正解だと思う項目を選択</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_text</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>question_selects</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダー部</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -256,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -306,8 +390,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +432,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -721,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -763,6 +859,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,23 +919,221 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,215 +1162,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1151,16 +1295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1175,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1889760" y="1021080"/>
-          <a:ext cx="4503420" cy="5524500"/>
+          <a:off x="1866900" y="998220"/>
+          <a:ext cx="4503420" cy="6454140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,21 +1350,21 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>数学　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>受験</a:t>
+            <a:t>数学　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
@@ -1228,7 +1372,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID:xxxxxx</a:t>
+            <a:t>xxxxxx</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
@@ -1258,16 +1402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1282,8 +1426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2369820" y="2110740"/>
-          <a:ext cx="1310640" cy="2804160"/>
+          <a:off x="2240280" y="2743200"/>
+          <a:ext cx="3901440" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,14 +1467,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになにな</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになになに</a:t>
+            <a:t>なになになにななになになになに</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1340,28 +1477,28 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１．４３　　　　　　　　</a:t>
+            <a:t>        ４３　　　             </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．５４</a:t>
+            <a:t>　　  ５４                           </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３。６５</a:t>
+            <a:t>        ６５                  </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>４．９８</a:t>
+            <a:t>        ９８</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1371,7 +1508,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　１</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1381,7 +1518,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　２</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1395,7 +1532,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　３</a:t>
+            <a:t>　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1405,7 +1542,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　４</a:t>
+            <a:t>　　　</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1415,15 +1552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1438,640 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2423160" y="3589020"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="楕円 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641B93E3-A282-4620-B567-70F3C7D91EB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="3931920"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C238152-6F79-45A0-9FED-008BF735F1FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="4274820"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA89DA9B-F401-4216-8D73-F5F7E0E33A5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2453640" y="4617720"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AFBE7D-C5C1-4E67-A7B3-BD0D9322370C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4145280" y="2110740"/>
-          <a:ext cx="1310640" cy="2804160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Q2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになにな</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なになになになに</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１．４３　　　　　　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．５４</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>３。６５</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>４．９８</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　１</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　２</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　３</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　４</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1B16AB-F451-44E6-864E-F57932DA0361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4221480" y="3604260"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="楕円 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163E11D-2267-442B-B495-2045B0E03ADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4236720" y="3954780"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCADA793-37FE-455B-B735-58A42B9038ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4244340" y="4305300"/>
-          <a:ext cx="160020" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6DE875-5A70-433C-AEB1-0A7D842716AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4259580" y="4617720"/>
-          <a:ext cx="160020" cy="175260"/>
+          <a:off x="2331720" y="3055620"/>
+          <a:ext cx="121920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2115,15 +1620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2138,7 +1643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025140" y="5852160"/>
+          <a:off x="3070860" y="6385560"/>
           <a:ext cx="1897380" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2186,15 +1691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2209,67 +1714,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="5128260"/>
-          <a:ext cx="83820" cy="91440"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFF5FA8-B6CA-4EAF-B138-80FBB43DBDB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1889760" y="1021080"/>
+          <a:off x="3916680" y="5676900"/>
           <a:ext cx="83820" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2306,15 +1751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2329,7 +1774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="5334000"/>
+          <a:off x="3909060" y="5882640"/>
           <a:ext cx="83820" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2366,15 +1811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2389,8 +1834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3832860" y="5547360"/>
-          <a:ext cx="83820" cy="91440"/>
+          <a:off x="3878580" y="6096000"/>
+          <a:ext cx="121920" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2418,6 +1863,778 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17382C2D-540B-4229-A94E-639A71E995B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="3482340"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA49662-4E92-4A84-8E35-96D8A9EB4B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="3695700"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD86B28-19F3-4EC9-BE3D-246533494AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="3261360"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA4C1F7-9557-4E9A-AA10-606A858DAA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="4213860"/>
+          <a:ext cx="3901440" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Q2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あらあらあらあらあらあらあらあら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        １　　　             </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　  ８３                           </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        ７４                  </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87BA92D-9409-49DB-8397-2CA34B14A308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2308860" y="4953000"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26211FFB-8CEA-4CE0-970C-94C8D9D452AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="4785360"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D723DB8-8B1B-49EA-8441-C2E85F5CB5BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="4594860"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED81FFB4-C6CE-4497-A2BD-AA9CAB9A5B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2308860" y="5158740"/>
+          <a:ext cx="121920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332CE998-BAC7-47F9-94D3-A0B9CE3B1BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="990600"/>
+          <a:ext cx="4533900" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>Sylph Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>試験</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71D16CA-0284-F098-E2AD-F3ABA0BF34BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="1310640"/>
+          <a:ext cx="815340" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2692,7 +2909,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="BK8" sqref="BK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2705,104 +2922,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
-        <v>37</v>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
-        <v>32</v>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -3743,104 +3960,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>28</v>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>24</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="26">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -4868,196 +5085,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="32">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
-        <v>29</v>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>30</v>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
-        <v>31</v>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -7261,14 +7478,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -7283,6 +7492,14 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7300,7 +7517,7 @@
   <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE12" sqref="BE12:BP12"/>
+      <selection activeCell="BQ15" sqref="BQ15:CI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7313,104 +7530,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
-        <v>37</v>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>31</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
-        <v>32</v>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -8351,104 +8568,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>28</v>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
+        <v>24</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="26">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -9476,1793 +9693,1691 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="32">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
-        <v>29</v>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>30</v>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
-        <v>29</v>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20" t="s">
+        <v>25</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="20"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
+      <c r="CI5" s="20"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="107"/>
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="107"/>
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="107"/>
+      <c r="BJ6" s="107"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="107"/>
+      <c r="BM6" s="107"/>
+      <c r="BN6" s="107"/>
+      <c r="BO6" s="107"/>
+      <c r="BP6" s="107"/>
+      <c r="BQ6" s="107"/>
+      <c r="BR6" s="107"/>
+      <c r="BS6" s="107"/>
+      <c r="BT6" s="107"/>
+      <c r="BU6" s="107"/>
+      <c r="BV6" s="107"/>
+      <c r="BW6" s="107"/>
+      <c r="BX6" s="107"/>
+      <c r="BY6" s="107"/>
+      <c r="BZ6" s="107"/>
+      <c r="CA6" s="107"/>
+      <c r="CB6" s="107"/>
+      <c r="CC6" s="107"/>
+      <c r="CD6" s="107"/>
+      <c r="CE6" s="107"/>
+      <c r="CF6" s="107"/>
+      <c r="CG6" s="107"/>
+      <c r="CH6" s="107"/>
+      <c r="CI6" s="107"/>
+    </row>
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="35"/>
-      <c r="CG6" s="35"/>
-      <c r="CH6" s="35"/>
-      <c r="CI6" s="35"/>
-    </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="37" t="s">
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="37" t="s">
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="37" t="s">
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="37" t="s">
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="110"/>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="110"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="40" t="s">
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="112"/>
+      <c r="BC7" s="112"/>
+      <c r="BD7" s="112"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="112"/>
+      <c r="BJ7" s="112"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="112"/>
+      <c r="BM7" s="112"/>
+      <c r="BN7" s="112"/>
+      <c r="BO7" s="112"/>
+      <c r="BP7" s="112"/>
+      <c r="BQ7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
-      <c r="BQ7" s="41" t="s">
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="113"/>
+      <c r="BU7" s="113"/>
+      <c r="BV7" s="113"/>
+      <c r="BW7" s="113"/>
+      <c r="BX7" s="113"/>
+      <c r="BY7" s="113"/>
+      <c r="BZ7" s="113"/>
+      <c r="CA7" s="113"/>
+      <c r="CB7" s="113"/>
+      <c r="CC7" s="113"/>
+      <c r="CD7" s="113"/>
+      <c r="CE7" s="113"/>
+      <c r="CF7" s="113"/>
+      <c r="CG7" s="113"/>
+      <c r="CH7" s="113"/>
+      <c r="CI7" s="113"/>
+    </row>
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="87">
+        <f t="shared" ref="B8:B9" si="0">ROW(B8)-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="41"/>
-      <c r="CF7" s="41"/>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="41"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="100"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="97"/>
+      <c r="BM8" s="97"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="97"/>
+      <c r="BQ8" s="98"/>
+      <c r="BR8" s="98"/>
+      <c r="BS8" s="98"/>
+      <c r="BT8" s="98"/>
+      <c r="BU8" s="98"/>
+      <c r="BV8" s="98"/>
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="98"/>
+      <c r="CA8" s="98"/>
+      <c r="CB8" s="98"/>
+      <c r="CC8" s="98"/>
+      <c r="CD8" s="98"/>
+      <c r="CE8" s="98"/>
+      <c r="CF8" s="98"/>
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="45">
-        <f t="shared" ref="B8:B10" si="0">ROW(B8)-7</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="56"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="56"/>
-      <c r="BT8" s="56"/>
-      <c r="BU8" s="56"/>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="56"/>
-      <c r="BX8" s="56"/>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="56"/>
-      <c r="CA8" s="56"/>
-      <c r="CB8" s="56"/>
-      <c r="CC8" s="56"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="56"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="56"/>
-      <c r="CH8" s="56"/>
-      <c r="CI8" s="56"/>
-    </row>
-    <row r="9" spans="1:1024" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="45">
+    <row r="9" spans="1:1024" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="87">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="59" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF9" s="95"/>
+      <c r="BG9" s="95"/>
+      <c r="BH9" s="95"/>
+      <c r="BI9" s="95"/>
+      <c r="BJ9" s="95"/>
+      <c r="BK9" s="95"/>
+      <c r="BL9" s="95"/>
+      <c r="BM9" s="95"/>
+      <c r="BN9" s="95"/>
+      <c r="BO9" s="95"/>
+      <c r="BP9" s="95"/>
+      <c r="BQ9" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR9" s="96"/>
+      <c r="BS9" s="96"/>
+      <c r="BT9" s="96"/>
+      <c r="BU9" s="96"/>
+      <c r="BV9" s="96"/>
+      <c r="BW9" s="96"/>
+      <c r="BX9" s="96"/>
+      <c r="BY9" s="96"/>
+      <c r="BZ9" s="96"/>
+      <c r="CA9" s="96"/>
+      <c r="CB9" s="96"/>
+      <c r="CC9" s="96"/>
+      <c r="CD9" s="96"/>
+      <c r="CE9" s="96"/>
+      <c r="CF9" s="96"/>
+      <c r="CG9" s="96"/>
+      <c r="CH9" s="96"/>
+      <c r="CI9" s="96"/>
+    </row>
+    <row r="10" spans="1:1024" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="87">
+        <v>3</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="119"/>
+      <c r="AW10" s="119"/>
+      <c r="AX10" s="119"/>
+      <c r="AY10" s="119"/>
+      <c r="AZ10" s="119"/>
+      <c r="BA10" s="119"/>
+      <c r="BB10" s="119"/>
+      <c r="BC10" s="119"/>
+      <c r="BD10" s="120"/>
+      <c r="BE10" s="116"/>
+      <c r="BF10" s="119"/>
+      <c r="BG10" s="119"/>
+      <c r="BH10" s="119"/>
+      <c r="BI10" s="119"/>
+      <c r="BJ10" s="119"/>
+      <c r="BK10" s="119"/>
+      <c r="BL10" s="119"/>
+      <c r="BM10" s="119"/>
+      <c r="BN10" s="119"/>
+      <c r="BO10" s="119"/>
+      <c r="BP10" s="120"/>
+      <c r="BQ10" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR10" s="85"/>
+      <c r="BS10" s="85"/>
+      <c r="BT10" s="85"/>
+      <c r="BU10" s="85"/>
+      <c r="BV10" s="85"/>
+      <c r="BW10" s="85"/>
+      <c r="BX10" s="85"/>
+      <c r="BY10" s="85"/>
+      <c r="BZ10" s="85"/>
+      <c r="CA10" s="85"/>
+      <c r="CB10" s="85"/>
+      <c r="CC10" s="85"/>
+      <c r="CD10" s="85"/>
+      <c r="CE10" s="85"/>
+      <c r="CF10" s="85"/>
+      <c r="CG10" s="85"/>
+      <c r="CH10" s="85"/>
+      <c r="CI10" s="86"/>
+    </row>
+    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="87">
+        <v>4</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="82"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="83"/>
+      <c r="BE11" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF11" s="82"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="82"/>
+      <c r="BI11" s="82"/>
+      <c r="BJ11" s="82"/>
+      <c r="BK11" s="82"/>
+      <c r="BL11" s="82"/>
+      <c r="BM11" s="82"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="82"/>
+      <c r="BP11" s="83"/>
+      <c r="BQ11" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="62" t="s">
-        <v>24</v>
+      <c r="BR11" s="85"/>
+      <c r="BS11" s="85"/>
+      <c r="BT11" s="85"/>
+      <c r="BU11" s="85"/>
+      <c r="BV11" s="85"/>
+      <c r="BW11" s="85"/>
+      <c r="BX11" s="85"/>
+      <c r="BY11" s="85"/>
+      <c r="BZ11" s="85"/>
+      <c r="CA11" s="85"/>
+      <c r="CB11" s="85"/>
+      <c r="CC11" s="85"/>
+      <c r="CD11" s="85"/>
+      <c r="CE11" s="85"/>
+      <c r="CF11" s="85"/>
+      <c r="CG11" s="85"/>
+      <c r="CH11" s="85"/>
+      <c r="CI11" s="86"/>
+    </row>
+    <row r="12" spans="1:1024" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="87">
+        <v>5</v>
       </c>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="59" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
-      <c r="BJ9" s="57"/>
-      <c r="BK9" s="57"/>
-      <c r="BL9" s="57"/>
-      <c r="BM9" s="57"/>
-      <c r="BN9" s="57"/>
-      <c r="BO9" s="57"/>
-      <c r="BP9" s="57"/>
-      <c r="BQ9" s="58" t="s">
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="BR9" s="58"/>
-      <c r="BS9" s="58"/>
-      <c r="BT9" s="58"/>
-      <c r="BU9" s="58"/>
-      <c r="BV9" s="58"/>
-      <c r="BW9" s="58"/>
-      <c r="BX9" s="58"/>
-      <c r="BY9" s="58"/>
-      <c r="BZ9" s="58"/>
-      <c r="CA9" s="58"/>
-      <c r="CB9" s="58"/>
-      <c r="CC9" s="58"/>
-      <c r="CD9" s="58"/>
-      <c r="CE9" s="58"/>
-      <c r="CF9" s="58"/>
-      <c r="CG9" s="58"/>
-      <c r="CH9" s="58"/>
-      <c r="CI9" s="58"/>
-    </row>
-    <row r="10" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="45">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="117"/>
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="117"/>
+      <c r="BA12" s="117"/>
+      <c r="BB12" s="117"/>
+      <c r="BC12" s="117"/>
+      <c r="BD12" s="118"/>
+      <c r="BE12" s="93" t="s">
+        <v>39</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="59" t="s">
+      <c r="BF12" s="117"/>
+      <c r="BG12" s="117"/>
+      <c r="BH12" s="117"/>
+      <c r="BI12" s="117"/>
+      <c r="BJ12" s="117"/>
+      <c r="BK12" s="117"/>
+      <c r="BL12" s="117"/>
+      <c r="BM12" s="117"/>
+      <c r="BN12" s="117"/>
+      <c r="BO12" s="117"/>
+      <c r="BP12" s="118"/>
+      <c r="BQ12" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="59" t="s">
-        <v>27</v>
+      <c r="BR12" s="85"/>
+      <c r="BS12" s="85"/>
+      <c r="BT12" s="85"/>
+      <c r="BU12" s="85"/>
+      <c r="BV12" s="85"/>
+      <c r="BW12" s="85"/>
+      <c r="BX12" s="85"/>
+      <c r="BY12" s="85"/>
+      <c r="BZ12" s="85"/>
+      <c r="CA12" s="85"/>
+      <c r="CB12" s="85"/>
+      <c r="CC12" s="85"/>
+      <c r="CD12" s="85"/>
+      <c r="CE12" s="85"/>
+      <c r="CF12" s="85"/>
+      <c r="CG12" s="85"/>
+      <c r="CH12" s="85"/>
+      <c r="CI12" s="86"/>
+    </row>
+    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="87">
+        <v>6</v>
       </c>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="59" t="s">
-        <v>26</v>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="81" t="s">
+        <v>40</v>
       </c>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="57"/>
-      <c r="BP10" s="57"/>
-      <c r="BQ10" s="58" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BR10" s="58"/>
-      <c r="BS10" s="58"/>
-      <c r="BT10" s="58"/>
-      <c r="BU10" s="58"/>
-      <c r="BV10" s="58"/>
-      <c r="BW10" s="58"/>
-      <c r="BX10" s="58"/>
-      <c r="BY10" s="58"/>
-      <c r="BZ10" s="58"/>
-      <c r="CA10" s="58"/>
-      <c r="CB10" s="58"/>
-      <c r="CC10" s="58"/>
-      <c r="CD10" s="58"/>
-      <c r="CE10" s="58"/>
-      <c r="CF10" s="58"/>
-      <c r="CG10" s="58"/>
-      <c r="CH10" s="58"/>
-      <c r="CI10" s="58"/>
-    </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="60"/>
-      <c r="BP11" s="61"/>
-      <c r="BQ11" s="67"/>
-      <c r="BR11" s="68"/>
-      <c r="BS11" s="68"/>
-      <c r="BT11" s="68"/>
-      <c r="BU11" s="68"/>
-      <c r="BV11" s="68"/>
-      <c r="BW11" s="68"/>
-      <c r="BX11" s="68"/>
-      <c r="BY11" s="68"/>
-      <c r="BZ11" s="68"/>
-      <c r="CA11" s="68"/>
-      <c r="CB11" s="68"/>
-      <c r="CC11" s="68"/>
-      <c r="CD11" s="68"/>
-      <c r="CE11" s="68"/>
-      <c r="CF11" s="68"/>
-      <c r="CG11" s="68"/>
-      <c r="CH11" s="68"/>
-      <c r="CI11" s="69"/>
-    </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="60"/>
-      <c r="BG12" s="60"/>
-      <c r="BH12" s="60"/>
-      <c r="BI12" s="60"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="60"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="60"/>
-      <c r="BP12" s="61"/>
-      <c r="BQ12" s="67"/>
-      <c r="BR12" s="68"/>
-      <c r="BS12" s="68"/>
-      <c r="BT12" s="68"/>
-      <c r="BU12" s="68"/>
-      <c r="BV12" s="68"/>
-      <c r="BW12" s="68"/>
-      <c r="BX12" s="68"/>
-      <c r="BY12" s="68"/>
-      <c r="BZ12" s="68"/>
-      <c r="CA12" s="68"/>
-      <c r="CB12" s="68"/>
-      <c r="CC12" s="68"/>
-      <c r="CD12" s="68"/>
-      <c r="CE12" s="68"/>
-      <c r="CF12" s="68"/>
-      <c r="CG12" s="68"/>
-      <c r="CH12" s="68"/>
-      <c r="CI12" s="69"/>
-    </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="60"/>
-      <c r="BG13" s="60"/>
-      <c r="BH13" s="60"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="60"/>
-      <c r="BK13" s="60"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="60"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="60"/>
-      <c r="BP13" s="61"/>
-      <c r="BQ13" s="67"/>
-      <c r="BR13" s="68"/>
-      <c r="BS13" s="68"/>
-      <c r="BT13" s="68"/>
-      <c r="BU13" s="68"/>
-      <c r="BV13" s="68"/>
-      <c r="BW13" s="68"/>
-      <c r="BX13" s="68"/>
-      <c r="BY13" s="68"/>
-      <c r="BZ13" s="68"/>
-      <c r="CA13" s="68"/>
-      <c r="CB13" s="68"/>
-      <c r="CC13" s="68"/>
-      <c r="CD13" s="68"/>
-      <c r="CE13" s="68"/>
-      <c r="CF13" s="68"/>
-      <c r="CG13" s="68"/>
-      <c r="CH13" s="68"/>
-      <c r="CI13" s="69"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="83"/>
+      <c r="BE13" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF13" s="82"/>
+      <c r="BG13" s="82"/>
+      <c r="BH13" s="82"/>
+      <c r="BI13" s="82"/>
+      <c r="BJ13" s="82"/>
+      <c r="BK13" s="82"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="82"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="82"/>
+      <c r="BP13" s="83"/>
+      <c r="BQ13" s="84"/>
+      <c r="BR13" s="85"/>
+      <c r="BS13" s="85"/>
+      <c r="BT13" s="85"/>
+      <c r="BU13" s="85"/>
+      <c r="BV13" s="85"/>
+      <c r="BW13" s="85"/>
+      <c r="BX13" s="85"/>
+      <c r="BY13" s="85"/>
+      <c r="BZ13" s="85"/>
+      <c r="CA13" s="85"/>
+      <c r="CB13" s="85"/>
+      <c r="CC13" s="85"/>
+      <c r="CD13" s="85"/>
+      <c r="CE13" s="85"/>
+      <c r="CF13" s="85"/>
+      <c r="CG13" s="85"/>
+      <c r="CH13" s="85"/>
+      <c r="CI13" s="86"/>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="60"/>
-      <c r="BG14" s="60"/>
-      <c r="BH14" s="60"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="60"/>
-      <c r="BM14" s="60"/>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="60"/>
-      <c r="BP14" s="61"/>
-      <c r="BQ14" s="67"/>
-      <c r="BR14" s="68"/>
-      <c r="BS14" s="68"/>
-      <c r="BT14" s="68"/>
-      <c r="BU14" s="68"/>
-      <c r="BV14" s="68"/>
-      <c r="BW14" s="68"/>
-      <c r="BX14" s="68"/>
-      <c r="BY14" s="68"/>
-      <c r="BZ14" s="68"/>
-      <c r="CA14" s="68"/>
-      <c r="CB14" s="68"/>
-      <c r="CC14" s="68"/>
-      <c r="CD14" s="68"/>
-      <c r="CE14" s="68"/>
-      <c r="CF14" s="68"/>
-      <c r="CG14" s="68"/>
-      <c r="CH14" s="68"/>
-      <c r="CI14" s="69"/>
+      <c r="B14" s="87">
+        <v>7</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="122"/>
+      <c r="AO14" s="122"/>
+      <c r="AP14" s="122"/>
+      <c r="AQ14" s="122"/>
+      <c r="AR14" s="122"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="122"/>
+      <c r="AX14" s="122"/>
+      <c r="AY14" s="122"/>
+      <c r="AZ14" s="122"/>
+      <c r="BA14" s="122"/>
+      <c r="BB14" s="122"/>
+      <c r="BC14" s="122"/>
+      <c r="BD14" s="123"/>
+      <c r="BE14" s="121"/>
+      <c r="BF14" s="122"/>
+      <c r="BG14" s="122"/>
+      <c r="BH14" s="122"/>
+      <c r="BI14" s="122"/>
+      <c r="BJ14" s="122"/>
+      <c r="BK14" s="122"/>
+      <c r="BL14" s="122"/>
+      <c r="BM14" s="122"/>
+      <c r="BN14" s="122"/>
+      <c r="BO14" s="122"/>
+      <c r="BP14" s="123"/>
+      <c r="BQ14" s="127"/>
+      <c r="BR14" s="128"/>
+      <c r="BS14" s="128"/>
+      <c r="BT14" s="128"/>
+      <c r="BU14" s="128"/>
+      <c r="BV14" s="128"/>
+      <c r="BW14" s="128"/>
+      <c r="BX14" s="128"/>
+      <c r="BY14" s="128"/>
+      <c r="BZ14" s="128"/>
+      <c r="CA14" s="128"/>
+      <c r="CB14" s="128"/>
+      <c r="CC14" s="128"/>
+      <c r="CD14" s="128"/>
+      <c r="CE14" s="128"/>
+      <c r="CF14" s="128"/>
+      <c r="CG14" s="128"/>
+      <c r="CH14" s="128"/>
+      <c r="CI14" s="129"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="59"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="61"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="60"/>
-      <c r="BG15" s="60"/>
-      <c r="BH15" s="60"/>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="60"/>
-      <c r="BK15" s="60"/>
-      <c r="BL15" s="60"/>
-      <c r="BM15" s="60"/>
-      <c r="BN15" s="60"/>
-      <c r="BO15" s="60"/>
-      <c r="BP15" s="61"/>
-      <c r="BQ15" s="67"/>
-      <c r="BR15" s="68"/>
-      <c r="BS15" s="68"/>
-      <c r="BT15" s="68"/>
-      <c r="BU15" s="68"/>
-      <c r="BV15" s="68"/>
-      <c r="BW15" s="68"/>
-      <c r="BX15" s="68"/>
-      <c r="BY15" s="68"/>
-      <c r="BZ15" s="68"/>
-      <c r="CA15" s="68"/>
-      <c r="CB15" s="68"/>
-      <c r="CC15" s="68"/>
-      <c r="CD15" s="68"/>
-      <c r="CE15" s="68"/>
-      <c r="CF15" s="68"/>
-      <c r="CG15" s="68"/>
-      <c r="CH15" s="68"/>
-      <c r="CI15" s="69"/>
+      <c r="B15" s="87">
+        <v>8</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="83"/>
+      <c r="BQ15" s="84"/>
+      <c r="BR15" s="85"/>
+      <c r="BS15" s="85"/>
+      <c r="BT15" s="85"/>
+      <c r="BU15" s="85"/>
+      <c r="BV15" s="85"/>
+      <c r="BW15" s="85"/>
+      <c r="BX15" s="85"/>
+      <c r="BY15" s="85"/>
+      <c r="BZ15" s="85"/>
+      <c r="CA15" s="85"/>
+      <c r="CB15" s="85"/>
+      <c r="CC15" s="85"/>
+      <c r="CD15" s="85"/>
+      <c r="CE15" s="85"/>
+      <c r="CF15" s="85"/>
+      <c r="CG15" s="85"/>
+      <c r="CH15" s="85"/>
+      <c r="CI15" s="86"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="70"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="71"/>
-      <c r="BN16" s="71"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="72"/>
-      <c r="BQ16" s="73"/>
-      <c r="BR16" s="74"/>
-      <c r="BS16" s="74"/>
-      <c r="BT16" s="74"/>
-      <c r="BU16" s="74"/>
-      <c r="BV16" s="74"/>
-      <c r="BW16" s="74"/>
-      <c r="BX16" s="74"/>
-      <c r="BY16" s="74"/>
-      <c r="BZ16" s="74"/>
-      <c r="CA16" s="74"/>
-      <c r="CB16" s="74"/>
-      <c r="CC16" s="74"/>
-      <c r="CD16" s="74"/>
-      <c r="CE16" s="74"/>
-      <c r="CF16" s="74"/>
-      <c r="CG16" s="74"/>
-      <c r="CH16" s="74"/>
-      <c r="CI16" s="75"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BK16" s="53"/>
+      <c r="BL16" s="53"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="54"/>
+      <c r="BQ16" s="55"/>
+      <c r="BR16" s="56"/>
+      <c r="BS16" s="56"/>
+      <c r="BT16" s="56"/>
+      <c r="BU16" s="56"/>
+      <c r="BV16" s="56"/>
+      <c r="BW16" s="56"/>
+      <c r="BX16" s="56"/>
+      <c r="BY16" s="56"/>
+      <c r="BZ16" s="56"/>
+      <c r="CA16" s="56"/>
+      <c r="CB16" s="56"/>
+      <c r="CC16" s="56"/>
+      <c r="CD16" s="56"/>
+      <c r="CE16" s="56"/>
+      <c r="CF16" s="56"/>
+      <c r="CG16" s="56"/>
+      <c r="CH16" s="56"/>
+      <c r="CI16" s="57"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="72"/>
-      <c r="BE17" s="70"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-      <c r="BM17" s="71"/>
-      <c r="BN17" s="71"/>
-      <c r="BO17" s="71"/>
-      <c r="BP17" s="72"/>
-      <c r="BQ17" s="82"/>
-      <c r="BR17" s="83"/>
-      <c r="BS17" s="83"/>
-      <c r="BT17" s="83"/>
-      <c r="BU17" s="83"/>
-      <c r="BV17" s="83"/>
-      <c r="BW17" s="83"/>
-      <c r="BX17" s="83"/>
-      <c r="BY17" s="83"/>
-      <c r="BZ17" s="83"/>
-      <c r="CA17" s="83"/>
-      <c r="CB17" s="83"/>
-      <c r="CC17" s="83"/>
-      <c r="CD17" s="83"/>
-      <c r="CE17" s="83"/>
-      <c r="CF17" s="83"/>
-      <c r="CG17" s="83"/>
-      <c r="CH17" s="83"/>
-      <c r="CI17" s="84"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="54"/>
+      <c r="BQ17" s="78"/>
+      <c r="BR17" s="79"/>
+      <c r="BS17" s="79"/>
+      <c r="BT17" s="79"/>
+      <c r="BU17" s="79"/>
+      <c r="BV17" s="79"/>
+      <c r="BW17" s="79"/>
+      <c r="BX17" s="79"/>
+      <c r="BY17" s="79"/>
+      <c r="BZ17" s="79"/>
+      <c r="CA17" s="79"/>
+      <c r="CB17" s="79"/>
+      <c r="CC17" s="79"/>
+      <c r="CD17" s="79"/>
+      <c r="CE17" s="79"/>
+      <c r="CF17" s="79"/>
+      <c r="CG17" s="79"/>
+      <c r="CH17" s="79"/>
+      <c r="CI17" s="80"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="72"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="71"/>
-      <c r="BG18" s="71"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="71"/>
-      <c r="BL18" s="71"/>
-      <c r="BM18" s="71"/>
-      <c r="BN18" s="71"/>
-      <c r="BO18" s="71"/>
-      <c r="BP18" s="72"/>
-      <c r="BQ18" s="85"/>
-      <c r="BR18" s="86"/>
-      <c r="BS18" s="86"/>
-      <c r="BT18" s="86"/>
-      <c r="BU18" s="86"/>
-      <c r="BV18" s="86"/>
-      <c r="BW18" s="86"/>
-      <c r="BX18" s="86"/>
-      <c r="BY18" s="86"/>
-      <c r="BZ18" s="86"/>
-      <c r="CA18" s="86"/>
-      <c r="CB18" s="86"/>
-      <c r="CC18" s="86"/>
-      <c r="CD18" s="86"/>
-      <c r="CE18" s="86"/>
-      <c r="CF18" s="86"/>
-      <c r="CG18" s="86"/>
-      <c r="CH18" s="86"/>
-      <c r="CI18" s="87"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="53"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="53"/>
+      <c r="BG18" s="53"/>
+      <c r="BH18" s="53"/>
+      <c r="BI18" s="53"/>
+      <c r="BJ18" s="53"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="53"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="53"/>
+      <c r="BO18" s="53"/>
+      <c r="BP18" s="54"/>
+      <c r="BQ18" s="75"/>
+      <c r="BR18" s="76"/>
+      <c r="BS18" s="76"/>
+      <c r="BT18" s="76"/>
+      <c r="BU18" s="76"/>
+      <c r="BV18" s="76"/>
+      <c r="BW18" s="76"/>
+      <c r="BX18" s="76"/>
+      <c r="BY18" s="76"/>
+      <c r="BZ18" s="76"/>
+      <c r="CA18" s="76"/>
+      <c r="CB18" s="76"/>
+      <c r="CC18" s="76"/>
+      <c r="CD18" s="76"/>
+      <c r="CE18" s="76"/>
+      <c r="CF18" s="76"/>
+      <c r="CG18" s="76"/>
+      <c r="CH18" s="76"/>
+      <c r="CI18" s="77"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="89"/>
-      <c r="BA19" s="89"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="89"/>
-      <c r="BD19" s="90"/>
-      <c r="BE19" s="88"/>
-      <c r="BF19" s="89"/>
-      <c r="BG19" s="89"/>
-      <c r="BH19" s="89"/>
-      <c r="BI19" s="89"/>
-      <c r="BJ19" s="89"/>
-      <c r="BK19" s="89"/>
-      <c r="BL19" s="89"/>
-      <c r="BM19" s="89"/>
-      <c r="BN19" s="89"/>
-      <c r="BO19" s="89"/>
-      <c r="BP19" s="90"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="92"/>
-      <c r="BS19" s="92"/>
-      <c r="BT19" s="92"/>
-      <c r="BU19" s="92"/>
-      <c r="BV19" s="92"/>
-      <c r="BW19" s="92"/>
-      <c r="BX19" s="92"/>
-      <c r="BY19" s="92"/>
-      <c r="BZ19" s="92"/>
-      <c r="CA19" s="92"/>
-      <c r="CB19" s="92"/>
-      <c r="CC19" s="92"/>
-      <c r="CD19" s="92"/>
-      <c r="CE19" s="92"/>
-      <c r="CF19" s="92"/>
-      <c r="CG19" s="92"/>
-      <c r="CH19" s="92"/>
-      <c r="CI19" s="93"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="67"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="69"/>
+      <c r="BR19" s="70"/>
+      <c r="BS19" s="70"/>
+      <c r="BT19" s="70"/>
+      <c r="BU19" s="70"/>
+      <c r="BV19" s="70"/>
+      <c r="BW19" s="70"/>
+      <c r="BX19" s="70"/>
+      <c r="BY19" s="70"/>
+      <c r="BZ19" s="70"/>
+      <c r="CA19" s="70"/>
+      <c r="CB19" s="70"/>
+      <c r="CC19" s="70"/>
+      <c r="CD19" s="70"/>
+      <c r="CE19" s="70"/>
+      <c r="CF19" s="70"/>
+      <c r="CG19" s="70"/>
+      <c r="CH19" s="70"/>
+      <c r="CI19" s="71"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="72"/>
-      <c r="BE20" s="70"/>
-      <c r="BF20" s="71"/>
-      <c r="BG20" s="71"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="71"/>
-      <c r="BL20" s="71"/>
-      <c r="BM20" s="71"/>
-      <c r="BN20" s="71"/>
-      <c r="BO20" s="71"/>
-      <c r="BP20" s="72"/>
-      <c r="BQ20" s="73"/>
-      <c r="BR20" s="74"/>
-      <c r="BS20" s="74"/>
-      <c r="BT20" s="74"/>
-      <c r="BU20" s="74"/>
-      <c r="BV20" s="74"/>
-      <c r="BW20" s="74"/>
-      <c r="BX20" s="74"/>
-      <c r="BY20" s="74"/>
-      <c r="BZ20" s="74"/>
-      <c r="CA20" s="74"/>
-      <c r="CB20" s="74"/>
-      <c r="CC20" s="74"/>
-      <c r="CD20" s="74"/>
-      <c r="CE20" s="74"/>
-      <c r="CF20" s="74"/>
-      <c r="CG20" s="74"/>
-      <c r="CH20" s="74"/>
-      <c r="CI20" s="75"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BH20" s="53"/>
+      <c r="BI20" s="53"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="53"/>
+      <c r="BM20" s="53"/>
+      <c r="BN20" s="53"/>
+      <c r="BO20" s="53"/>
+      <c r="BP20" s="54"/>
+      <c r="BQ20" s="55"/>
+      <c r="BR20" s="56"/>
+      <c r="BS20" s="56"/>
+      <c r="BT20" s="56"/>
+      <c r="BU20" s="56"/>
+      <c r="BV20" s="56"/>
+      <c r="BW20" s="56"/>
+      <c r="BX20" s="56"/>
+      <c r="BY20" s="56"/>
+      <c r="BZ20" s="56"/>
+      <c r="CA20" s="56"/>
+      <c r="CB20" s="56"/>
+      <c r="CC20" s="56"/>
+      <c r="CD20" s="56"/>
+      <c r="CE20" s="56"/>
+      <c r="CF20" s="56"/>
+      <c r="CG20" s="56"/>
+      <c r="CH20" s="56"/>
+      <c r="CI20" s="57"/>
     </row>
     <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="111"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="98"/>
-      <c r="AR21" s="112"/>
-      <c r="AS21" s="112"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="98"/>
-      <c r="AW21" s="98"/>
-      <c r="AX21" s="98"/>
-      <c r="AY21" s="98"/>
-      <c r="AZ21" s="98"/>
-      <c r="BA21" s="98"/>
-      <c r="BB21" s="98"/>
-      <c r="BC21" s="98"/>
-      <c r="BD21" s="99"/>
-      <c r="BE21" s="97"/>
-      <c r="BF21" s="98"/>
-      <c r="BG21" s="98"/>
-      <c r="BH21" s="98"/>
-      <c r="BI21" s="98"/>
-      <c r="BJ21" s="98"/>
-      <c r="BK21" s="98"/>
-      <c r="BL21" s="98"/>
-      <c r="BM21" s="98"/>
-      <c r="BN21" s="98"/>
-      <c r="BO21" s="98"/>
-      <c r="BP21" s="99"/>
-      <c r="BQ21" s="100"/>
-      <c r="BR21" s="101"/>
-      <c r="BS21" s="101"/>
-      <c r="BT21" s="101"/>
-      <c r="BU21" s="101"/>
-      <c r="BV21" s="101"/>
-      <c r="BW21" s="101"/>
-      <c r="BX21" s="101"/>
-      <c r="BY21" s="101"/>
-      <c r="BZ21" s="101"/>
-      <c r="CA21" s="101"/>
-      <c r="CB21" s="101"/>
-      <c r="CC21" s="101"/>
-      <c r="CD21" s="101"/>
-      <c r="CE21" s="101"/>
-      <c r="CF21" s="101"/>
-      <c r="CG21" s="101"/>
-      <c r="CH21" s="101"/>
-      <c r="CI21" s="102"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="35"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="39"/>
+      <c r="BS21" s="39"/>
+      <c r="BT21" s="39"/>
+      <c r="BU21" s="39"/>
+      <c r="BV21" s="39"/>
+      <c r="BW21" s="39"/>
+      <c r="BX21" s="39"/>
+      <c r="BY21" s="39"/>
+      <c r="BZ21" s="39"/>
+      <c r="CA21" s="39"/>
+      <c r="CB21" s="39"/>
+      <c r="CC21" s="39"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
+      <c r="CF21" s="39"/>
+      <c r="CG21" s="39"/>
+      <c r="CH21" s="39"/>
+      <c r="CI21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -11285,6 +11400,141 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
